--- a/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA001／登録用プロジェクト一覧.xlsx
+++ b/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA001／登録用プロジェクト一覧.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DA1BE-7149-4FD3-A332-2BCC6AA869FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511CE550-3CB4-41E1-B8B4-D5663E687221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="-120" windowWidth="27885" windowHeight="16440" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="59" r:id="rId1"/>
@@ -45,17 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="157">
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="160">
   <si>
     <t>PJ名</t>
   </si>
@@ -675,10 +665,6 @@
     <t>PROJECT_ID</t>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
@@ -806,10 +792,6 @@
   </si>
   <si>
     <t>SALES</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>売上高</t>
     <phoneticPr fontId="17"/>
   </si>
   <si>
@@ -1000,6 +982,39 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>金額</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>3.1.プロジェクト情報レコード</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ドメイン情報をドメイン定義書に合わせて修正</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1722,7 +1737,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2078,6 +2093,174 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2095,186 +2278,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2305,15 +2329,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2323,12 +2338,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2338,11 +2410,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2353,65 +2428,191 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2458,209 +2659,68 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2668,50 +2728,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6365,7 +6389,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="64"/>
       <c r="J23" s="65" t="s">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K23" s="64"/>
       <c r="L23" s="64"/>
@@ -6396,7 +6420,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="129">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44805</v>
+        <v>44907</v>
       </c>
       <c r="J25" s="129"/>
       <c r="K25" s="129"/>
@@ -7006,154 +7030,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="57" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="151" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="165" t="s">
+      <c r="P1" s="169"/>
+      <c r="Q1" s="169"/>
+      <c r="R1" s="170"/>
+      <c r="S1" s="177" t="s">
+        <v>148</v>
+      </c>
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="174" t="s">
-        <v>151</v>
-      </c>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="162" t="s">
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="145" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="148">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="151">
         <f>IF(D8="","",D8)</f>
         <v>44805</v>
       </c>
-      <c r="AH1" s="149"/>
-      <c r="AI1" s="150"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AK1" s="10"/>
       <c r="AL1" s="10"/>
       <c r="AM1" s="10"/>
       <c r="AN1" s="58"/>
     </row>
     <row r="2" spans="1:40" s="57" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="151" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="165" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="162" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="157" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="148" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="159"/>
+      <c r="AG2" s="151">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="150"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
       <c r="AM2" s="10"/>
       <c r="AN2" s="10"/>
     </row>
     <row r="3" spans="1:40" s="57" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="151" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="157"/>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="148"/>
-      <c r="AH3" s="149"/>
-      <c r="AI3" s="150"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="175"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="167"/>
+      <c r="AC3" s="160"/>
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="151"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AK3" s="10"/>
       <c r="AL3" s="10"/>
       <c r="AM3" s="10"/>
@@ -7172,7 +7196,7 @@
     </row>
     <row r="5" spans="1:40" s="57" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB5" s="59"/>
       <c r="AC5" s="59"/>
@@ -7198,126 +7222,138 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="C7" s="162"/>
+      <c r="D7" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="158" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="160"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="158" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="160"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="161" t="s">
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="158" t="s">
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="163"/>
+      <c r="W7" s="163"/>
+      <c r="X7" s="163"/>
+      <c r="Y7" s="163"/>
+      <c r="Z7" s="163"/>
+      <c r="AA7" s="163"/>
+      <c r="AB7" s="163"/>
+      <c r="AC7" s="163"/>
+      <c r="AD7" s="163"/>
+      <c r="AE7" s="162"/>
+      <c r="AF7" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
-      <c r="AC7" s="160"/>
-      <c r="AD7" s="160"/>
-      <c r="AE7" s="159"/>
-      <c r="AF7" s="158" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG7" s="160"/>
-      <c r="AH7" s="160"/>
-      <c r="AI7" s="159"/>
+      <c r="AG7" s="163"/>
+      <c r="AH7" s="163"/>
+      <c r="AI7" s="162"/>
       <c r="AJ7" s="54"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="88">
         <v>1</v>
       </c>
-      <c r="B8" s="183" t="s">
+      <c r="B8" s="139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141">
+        <v>44805</v>
+      </c>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="184"/>
-      <c r="D8" s="185">
-        <v>44805</v>
-      </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="183" t="s">
+      <c r="H8" s="144"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="188"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="189" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="190"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="191"/>
-      <c r="Q8" s="189" t="s">
+      <c r="R8" s="146"/>
+      <c r="S8" s="146"/>
+      <c r="T8" s="146"/>
+      <c r="U8" s="146"/>
+      <c r="V8" s="146"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="146"/>
+      <c r="Y8" s="146"/>
+      <c r="Z8" s="146"/>
+      <c r="AA8" s="146"/>
+      <c r="AB8" s="146"/>
+      <c r="AC8" s="146"/>
+      <c r="AD8" s="146"/>
+      <c r="AE8" s="147"/>
+      <c r="AF8" s="189" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="190"/>
-      <c r="S8" s="190"/>
-      <c r="T8" s="190"/>
-      <c r="U8" s="190"/>
-      <c r="V8" s="190"/>
-      <c r="W8" s="190"/>
-      <c r="X8" s="190"/>
-      <c r="Y8" s="190"/>
-      <c r="Z8" s="190"/>
-      <c r="AA8" s="190"/>
-      <c r="AB8" s="190"/>
-      <c r="AC8" s="190"/>
-      <c r="AD8" s="190"/>
-      <c r="AE8" s="191"/>
-      <c r="AF8" s="133" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG8" s="134"/>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="135"/>
+      <c r="AG8" s="190"/>
+      <c r="AH8" s="190"/>
+      <c r="AI8" s="191"/>
       <c r="AJ8" s="54"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="89">
+        <v>2</v>
+      </c>
+      <c r="B9" s="342" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="131"/>
+      <c r="D9" s="132">
+        <v>44907</v>
+      </c>
+      <c r="E9" s="133"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="342" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="135"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="343" t="s">
+        <v>157</v>
+      </c>
       <c r="K9" s="137"/>
       <c r="L9" s="137"/>
       <c r="M9" s="137"/>
       <c r="N9" s="137"/>
       <c r="O9" s="137"/>
       <c r="P9" s="138"/>
-      <c r="Q9" s="136"/>
+      <c r="Q9" s="343" t="s">
+        <v>158</v>
+      </c>
       <c r="R9" s="137"/>
       <c r="S9" s="137"/>
       <c r="T9" s="137"/>
@@ -7332,22 +7368,24 @@
       <c r="AC9" s="137"/>
       <c r="AD9" s="137"/>
       <c r="AE9" s="138"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="131"/>
-      <c r="AH9" s="131"/>
-      <c r="AI9" s="132"/>
+      <c r="AF9" s="344" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="187"/>
+      <c r="AH9" s="187"/>
+      <c r="AI9" s="188"/>
       <c r="AJ9" s="10"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="141"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="131"/>
       <c r="J10" s="136"/>
       <c r="K10" s="137"/>
       <c r="L10" s="137"/>
@@ -7370,21 +7408,21 @@
       <c r="AC10" s="137"/>
       <c r="AD10" s="137"/>
       <c r="AE10" s="138"/>
-      <c r="AF10" s="130"/>
-      <c r="AG10" s="131"/>
-      <c r="AH10" s="131"/>
-      <c r="AI10" s="132"/>
+      <c r="AF10" s="186"/>
+      <c r="AG10" s="187"/>
+      <c r="AH10" s="187"/>
+      <c r="AI10" s="188"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="141"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="131"/>
       <c r="J11" s="136"/>
       <c r="K11" s="137"/>
       <c r="L11" s="137"/>
@@ -7407,21 +7445,21 @@
       <c r="AC11" s="137"/>
       <c r="AD11" s="137"/>
       <c r="AE11" s="138"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="131"/>
-      <c r="AH11" s="131"/>
-      <c r="AI11" s="132"/>
+      <c r="AF11" s="186"/>
+      <c r="AG11" s="187"/>
+      <c r="AH11" s="187"/>
+      <c r="AI11" s="188"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="131"/>
       <c r="J12" s="136"/>
       <c r="K12" s="137"/>
       <c r="L12" s="137"/>
@@ -7444,21 +7482,21 @@
       <c r="AC12" s="137"/>
       <c r="AD12" s="137"/>
       <c r="AE12" s="138"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="132"/>
+      <c r="AF12" s="186"/>
+      <c r="AG12" s="187"/>
+      <c r="AH12" s="187"/>
+      <c r="AI12" s="188"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="141"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="136"/>
       <c r="K13" s="137"/>
       <c r="L13" s="137"/>
@@ -7481,28 +7519,28 @@
       <c r="AC13" s="137"/>
       <c r="AD13" s="137"/>
       <c r="AE13" s="138"/>
-      <c r="AF13" s="130"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="131"/>
-      <c r="AI13" s="132"/>
+      <c r="AF13" s="186"/>
+      <c r="AG13" s="187"/>
+      <c r="AH13" s="187"/>
+      <c r="AI13" s="188"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="89"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="130"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="131"/>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
-      <c r="P14" s="132"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="187"/>
+      <c r="O14" s="187"/>
+      <c r="P14" s="188"/>
       <c r="Q14" s="136"/>
       <c r="R14" s="137"/>
       <c r="S14" s="137"/>
@@ -7518,28 +7556,28 @@
       <c r="AC14" s="137"/>
       <c r="AD14" s="137"/>
       <c r="AE14" s="138"/>
-      <c r="AF14" s="130"/>
-      <c r="AG14" s="131"/>
-      <c r="AH14" s="131"/>
-      <c r="AI14" s="132"/>
+      <c r="AF14" s="186"/>
+      <c r="AG14" s="187"/>
+      <c r="AH14" s="187"/>
+      <c r="AI14" s="188"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="89"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="131"/>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
-      <c r="P15" s="132"/>
+      <c r="B15" s="130"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="186"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="188"/>
       <c r="Q15" s="136"/>
       <c r="R15" s="137"/>
       <c r="S15" s="137"/>
@@ -7555,28 +7593,28 @@
       <c r="AC15" s="137"/>
       <c r="AD15" s="137"/>
       <c r="AE15" s="138"/>
-      <c r="AF15" s="130"/>
-      <c r="AG15" s="131"/>
-      <c r="AH15" s="131"/>
-      <c r="AI15" s="132"/>
+      <c r="AF15" s="186"/>
+      <c r="AG15" s="187"/>
+      <c r="AH15" s="187"/>
+      <c r="AI15" s="188"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="89"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="130"/>
-      <c r="K16" s="131"/>
-      <c r="L16" s="131"/>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
-      <c r="P16" s="132"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="186"/>
+      <c r="K16" s="187"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="187"/>
+      <c r="O16" s="187"/>
+      <c r="P16" s="188"/>
       <c r="Q16" s="136"/>
       <c r="R16" s="137"/>
       <c r="S16" s="137"/>
@@ -7592,28 +7630,28 @@
       <c r="AC16" s="137"/>
       <c r="AD16" s="137"/>
       <c r="AE16" s="138"/>
-      <c r="AF16" s="130"/>
-      <c r="AG16" s="131"/>
-      <c r="AH16" s="131"/>
-      <c r="AI16" s="132"/>
+      <c r="AF16" s="186"/>
+      <c r="AG16" s="187"/>
+      <c r="AH16" s="187"/>
+      <c r="AI16" s="188"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="89"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="141"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
-      <c r="P17" s="132"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="135"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="186"/>
+      <c r="K17" s="187"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="187"/>
+      <c r="N17" s="187"/>
+      <c r="O17" s="187"/>
+      <c r="P17" s="188"/>
       <c r="Q17" s="136"/>
       <c r="R17" s="137"/>
       <c r="S17" s="137"/>
@@ -7629,28 +7667,28 @@
       <c r="AC17" s="137"/>
       <c r="AD17" s="137"/>
       <c r="AE17" s="138"/>
-      <c r="AF17" s="130"/>
-      <c r="AG17" s="131"/>
-      <c r="AH17" s="131"/>
-      <c r="AI17" s="132"/>
+      <c r="AF17" s="186"/>
+      <c r="AG17" s="187"/>
+      <c r="AH17" s="187"/>
+      <c r="AI17" s="188"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="89"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="131"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="131"/>
-      <c r="N18" s="131"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="132"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="186"/>
+      <c r="K18" s="187"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="187"/>
+      <c r="O18" s="187"/>
+      <c r="P18" s="188"/>
       <c r="Q18" s="136"/>
       <c r="R18" s="137"/>
       <c r="S18" s="137"/>
@@ -7666,28 +7704,28 @@
       <c r="AC18" s="137"/>
       <c r="AD18" s="137"/>
       <c r="AE18" s="138"/>
-      <c r="AF18" s="130"/>
-      <c r="AG18" s="131"/>
-      <c r="AH18" s="131"/>
-      <c r="AI18" s="132"/>
+      <c r="AF18" s="186"/>
+      <c r="AG18" s="187"/>
+      <c r="AH18" s="187"/>
+      <c r="AI18" s="188"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="89"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="132"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="188"/>
       <c r="Q19" s="136"/>
       <c r="R19" s="137"/>
       <c r="S19" s="137"/>
@@ -7703,28 +7741,28 @@
       <c r="AC19" s="137"/>
       <c r="AD19" s="137"/>
       <c r="AE19" s="138"/>
-      <c r="AF19" s="130"/>
-      <c r="AG19" s="131"/>
-      <c r="AH19" s="131"/>
-      <c r="AI19" s="132"/>
+      <c r="AF19" s="186"/>
+      <c r="AG19" s="187"/>
+      <c r="AH19" s="187"/>
+      <c r="AI19" s="188"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="89"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="132"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="186"/>
+      <c r="K20" s="187"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="187"/>
+      <c r="N20" s="187"/>
+      <c r="O20" s="187"/>
+      <c r="P20" s="188"/>
       <c r="Q20" s="136"/>
       <c r="R20" s="137"/>
       <c r="S20" s="137"/>
@@ -7740,28 +7778,28 @@
       <c r="AC20" s="137"/>
       <c r="AD20" s="137"/>
       <c r="AE20" s="138"/>
-      <c r="AF20" s="130"/>
-      <c r="AG20" s="131"/>
-      <c r="AH20" s="131"/>
-      <c r="AI20" s="132"/>
+      <c r="AF20" s="186"/>
+      <c r="AG20" s="187"/>
+      <c r="AH20" s="187"/>
+      <c r="AI20" s="188"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="89"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="130"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="132"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="186"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="188"/>
       <c r="Q21" s="136"/>
       <c r="R21" s="137"/>
       <c r="S21" s="137"/>
@@ -7777,28 +7815,28 @@
       <c r="AC21" s="137"/>
       <c r="AD21" s="137"/>
       <c r="AE21" s="138"/>
-      <c r="AF21" s="130"/>
-      <c r="AG21" s="131"/>
-      <c r="AH21" s="131"/>
-      <c r="AI21" s="132"/>
+      <c r="AF21" s="186"/>
+      <c r="AG21" s="187"/>
+      <c r="AH21" s="187"/>
+      <c r="AI21" s="188"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="89"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="132"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="186"/>
+      <c r="K22" s="187"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="187"/>
+      <c r="N22" s="187"/>
+      <c r="O22" s="187"/>
+      <c r="P22" s="188"/>
       <c r="Q22" s="136"/>
       <c r="R22" s="137"/>
       <c r="S22" s="137"/>
@@ -7814,28 +7852,28 @@
       <c r="AC22" s="137"/>
       <c r="AD22" s="137"/>
       <c r="AE22" s="138"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="131"/>
-      <c r="AH22" s="131"/>
-      <c r="AI22" s="132"/>
+      <c r="AF22" s="186"/>
+      <c r="AG22" s="187"/>
+      <c r="AH22" s="187"/>
+      <c r="AI22" s="188"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="89"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="131"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="131"/>
-      <c r="N23" s="131"/>
-      <c r="O23" s="131"/>
-      <c r="P23" s="132"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="186"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="188"/>
       <c r="Q23" s="136"/>
       <c r="R23" s="137"/>
       <c r="S23" s="137"/>
@@ -7851,28 +7889,28 @@
       <c r="AC23" s="137"/>
       <c r="AD23" s="137"/>
       <c r="AE23" s="138"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="131"/>
-      <c r="AH23" s="131"/>
-      <c r="AI23" s="132"/>
+      <c r="AF23" s="186"/>
+      <c r="AG23" s="187"/>
+      <c r="AH23" s="187"/>
+      <c r="AI23" s="188"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="89"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="130"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="131"/>
-      <c r="N24" s="131"/>
-      <c r="O24" s="131"/>
-      <c r="P24" s="132"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="186"/>
+      <c r="K24" s="187"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="188"/>
       <c r="Q24" s="136"/>
       <c r="R24" s="137"/>
       <c r="S24" s="137"/>
@@ -7888,28 +7926,28 @@
       <c r="AC24" s="137"/>
       <c r="AD24" s="137"/>
       <c r="AE24" s="138"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="132"/>
+      <c r="AF24" s="186"/>
+      <c r="AG24" s="187"/>
+      <c r="AH24" s="187"/>
+      <c r="AI24" s="188"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="89"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="130"/>
-      <c r="K25" s="131"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="131"/>
-      <c r="N25" s="131"/>
-      <c r="O25" s="131"/>
-      <c r="P25" s="132"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="131"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="187"/>
+      <c r="N25" s="187"/>
+      <c r="O25" s="187"/>
+      <c r="P25" s="188"/>
       <c r="Q25" s="136"/>
       <c r="R25" s="137"/>
       <c r="S25" s="137"/>
@@ -7925,28 +7963,28 @@
       <c r="AC25" s="137"/>
       <c r="AD25" s="137"/>
       <c r="AE25" s="138"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="132"/>
+      <c r="AF25" s="186"/>
+      <c r="AG25" s="187"/>
+      <c r="AH25" s="187"/>
+      <c r="AI25" s="188"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="89"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="130"/>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
-      <c r="N26" s="131"/>
-      <c r="O26" s="131"/>
-      <c r="P26" s="132"/>
+      <c r="B26" s="130"/>
+      <c r="C26" s="131"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="186"/>
+      <c r="K26" s="187"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="187"/>
+      <c r="N26" s="187"/>
+      <c r="O26" s="187"/>
+      <c r="P26" s="188"/>
       <c r="Q26" s="136"/>
       <c r="R26" s="137"/>
       <c r="S26" s="137"/>
@@ -7962,28 +8000,28 @@
       <c r="AC26" s="137"/>
       <c r="AD26" s="137"/>
       <c r="AE26" s="138"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="131"/>
-      <c r="AH26" s="131"/>
-      <c r="AI26" s="132"/>
+      <c r="AF26" s="186"/>
+      <c r="AG26" s="187"/>
+      <c r="AH26" s="187"/>
+      <c r="AI26" s="188"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="89"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="141"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="130"/>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="132"/>
+      <c r="B27" s="130"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="187"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="188"/>
       <c r="Q27" s="136"/>
       <c r="R27" s="137"/>
       <c r="S27" s="137"/>
@@ -7999,28 +8037,28 @@
       <c r="AC27" s="137"/>
       <c r="AD27" s="137"/>
       <c r="AE27" s="138"/>
-      <c r="AF27" s="130"/>
-      <c r="AG27" s="131"/>
-      <c r="AH27" s="131"/>
-      <c r="AI27" s="132"/>
+      <c r="AF27" s="186"/>
+      <c r="AG27" s="187"/>
+      <c r="AH27" s="187"/>
+      <c r="AI27" s="188"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="89"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="130"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="132"/>
+      <c r="B28" s="130"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="132"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="187"/>
+      <c r="N28" s="187"/>
+      <c r="O28" s="187"/>
+      <c r="P28" s="188"/>
       <c r="Q28" s="136"/>
       <c r="R28" s="137"/>
       <c r="S28" s="137"/>
@@ -8036,28 +8074,28 @@
       <c r="AC28" s="137"/>
       <c r="AD28" s="137"/>
       <c r="AE28" s="138"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="131"/>
-      <c r="AH28" s="131"/>
-      <c r="AI28" s="132"/>
+      <c r="AF28" s="186"/>
+      <c r="AG28" s="187"/>
+      <c r="AH28" s="187"/>
+      <c r="AI28" s="188"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="89"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="141"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="131"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="132"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="186"/>
+      <c r="K29" s="187"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="187"/>
+      <c r="N29" s="187"/>
+      <c r="O29" s="187"/>
+      <c r="P29" s="188"/>
       <c r="Q29" s="136"/>
       <c r="R29" s="137"/>
       <c r="S29" s="137"/>
@@ -8073,28 +8111,28 @@
       <c r="AC29" s="137"/>
       <c r="AD29" s="137"/>
       <c r="AE29" s="138"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="131"/>
-      <c r="AH29" s="131"/>
-      <c r="AI29" s="132"/>
+      <c r="AF29" s="186"/>
+      <c r="AG29" s="187"/>
+      <c r="AH29" s="187"/>
+      <c r="AI29" s="188"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="89"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="130"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
-      <c r="N30" s="131"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="132"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="187"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="187"/>
+      <c r="N30" s="187"/>
+      <c r="O30" s="187"/>
+      <c r="P30" s="188"/>
       <c r="Q30" s="136"/>
       <c r="R30" s="137"/>
       <c r="S30" s="137"/>
@@ -8110,28 +8148,28 @@
       <c r="AC30" s="137"/>
       <c r="AD30" s="137"/>
       <c r="AE30" s="138"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="131"/>
-      <c r="AH30" s="131"/>
-      <c r="AI30" s="132"/>
+      <c r="AF30" s="186"/>
+      <c r="AG30" s="187"/>
+      <c r="AH30" s="187"/>
+      <c r="AI30" s="188"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="89"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="141"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="130"/>
-      <c r="K31" s="131"/>
-      <c r="L31" s="131"/>
-      <c r="M31" s="131"/>
-      <c r="N31" s="131"/>
-      <c r="O31" s="131"/>
-      <c r="P31" s="132"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="187"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="188"/>
       <c r="Q31" s="136"/>
       <c r="R31" s="137"/>
       <c r="S31" s="137"/>
@@ -8147,28 +8185,28 @@
       <c r="AC31" s="137"/>
       <c r="AD31" s="137"/>
       <c r="AE31" s="138"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="131"/>
-      <c r="AH31" s="131"/>
-      <c r="AI31" s="132"/>
+      <c r="AF31" s="186"/>
+      <c r="AG31" s="187"/>
+      <c r="AH31" s="187"/>
+      <c r="AI31" s="188"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="89"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="141"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="130"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="132"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="131"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="186"/>
+      <c r="K32" s="187"/>
+      <c r="L32" s="187"/>
+      <c r="M32" s="187"/>
+      <c r="N32" s="187"/>
+      <c r="O32" s="187"/>
+      <c r="P32" s="188"/>
       <c r="Q32" s="136"/>
       <c r="R32" s="137"/>
       <c r="S32" s="137"/>
@@ -8184,28 +8222,28 @@
       <c r="AC32" s="137"/>
       <c r="AD32" s="137"/>
       <c r="AE32" s="138"/>
-      <c r="AF32" s="130"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="132"/>
+      <c r="AF32" s="186"/>
+      <c r="AG32" s="187"/>
+      <c r="AH32" s="187"/>
+      <c r="AI32" s="188"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="89"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="131"/>
-      <c r="L33" s="131"/>
-      <c r="M33" s="131"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="131"/>
-      <c r="P33" s="132"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="131"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="186"/>
+      <c r="K33" s="187"/>
+      <c r="L33" s="187"/>
+      <c r="M33" s="187"/>
+      <c r="N33" s="187"/>
+      <c r="O33" s="187"/>
+      <c r="P33" s="188"/>
       <c r="Q33" s="136"/>
       <c r="R33" s="137"/>
       <c r="S33" s="137"/>
@@ -8221,157 +8259,24 @@
       <c r="AC33" s="137"/>
       <c r="AD33" s="137"/>
       <c r="AE33" s="138"/>
-      <c r="AF33" s="130"/>
-      <c r="AG33" s="131"/>
-      <c r="AH33" s="131"/>
-      <c r="AI33" s="132"/>
+      <c r="AF33" s="186"/>
+      <c r="AG33" s="187"/>
+      <c r="AH33" s="187"/>
+      <c r="AI33" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8396,17 +8301,150 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -8563,165 +8601,165 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
+      <c r="A1" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="199" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA001/登録用プロジェクト一覧</v>
       </c>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="157" t="str">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="206">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="192">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44805</v>
       </c>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="194"/>
     </row>
     <row r="2" spans="1:35" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
+      <c r="A2" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="197"/>
       <c r="E2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="157" t="str">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="206" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="192">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="194"/>
     </row>
     <row r="3" spans="1:35" s="73" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="192" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="197"/>
       <c r="E3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="157" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="206" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="194"/>
     </row>
     <row r="4" spans="1:35" s="57" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="90"/>
     </row>
     <row r="5" spans="1:35" s="57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC5" s="90"/>
     </row>
@@ -8732,7 +8770,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57"/>
       <c r="B7" s="92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="92"/>
       <c r="D7" s="57"/>
@@ -8808,7 +8846,7 @@
     <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="57"/>
       <c r="B9" s="92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="92"/>
       <c r="D9" s="57"/>
@@ -8884,7 +8922,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
       <c r="B11" s="95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
@@ -8924,7 +8962,7 @@
       <c r="A12" s="57"/>
       <c r="B12" s="96"/>
       <c r="C12" s="96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
@@ -9784,12 +9822,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9801,6 +9833,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -9827,158 +9865,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A1" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
+      <c r="A1" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="199" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA001/登録用プロジェクト一覧</v>
       </c>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="157" t="str">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="206">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="192">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44805</v>
       </c>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="194"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A2" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
+      <c r="A2" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="197"/>
       <c r="E2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="157" t="str">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="206" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="192">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="194"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A3" s="192" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="197"/>
       <c r="E3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="157" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="206" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="194"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="33"/>
@@ -9991,7 +10029,7 @@
     </row>
     <row r="5" spans="1:35" s="61" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:35" s="61" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -9999,11 +10037,11 @@
     </row>
     <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="209" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="212"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="213"/>
+        <v>32</v>
+      </c>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
@@ -10016,82 +10054,82 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
-      <c r="Q7" s="214" t="s">
+      <c r="Q7" s="233" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="234"/>
+      <c r="S7" s="234"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="239" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="215"/>
-      <c r="S7" s="215"/>
-      <c r="T7" s="216"/>
-      <c r="U7" s="219" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="220"/>
-      <c r="W7" s="220"/>
-      <c r="X7" s="220"/>
-      <c r="Y7" s="220"/>
-      <c r="Z7" s="220"/>
-      <c r="AA7" s="220"/>
-      <c r="AB7" s="220"/>
-      <c r="AC7" s="220"/>
-      <c r="AD7" s="220"/>
-      <c r="AE7" s="220"/>
-      <c r="AF7" s="220"/>
-      <c r="AG7" s="220"/>
-      <c r="AH7" s="220"/>
-      <c r="AI7" s="221"/>
+      <c r="V7" s="240"/>
+      <c r="W7" s="240"/>
+      <c r="X7" s="240"/>
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="240"/>
+      <c r="AD7" s="240"/>
+      <c r="AE7" s="240"/>
+      <c r="AF7" s="240"/>
+      <c r="AG7" s="240"/>
+      <c r="AH7" s="240"/>
+      <c r="AI7" s="241"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="209" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="217"/>
+      <c r="E8" s="230" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="231"/>
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="231"/>
+      <c r="O8" s="231"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="209" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="217" t="s">
-        <v>152</v>
-      </c>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="209" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="212"/>
-      <c r="S8" s="212"/>
-      <c r="T8" s="213"/>
-      <c r="U8" s="217" t="s">
-        <v>153</v>
-      </c>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="218"/>
-      <c r="AD8" s="218"/>
-      <c r="AE8" s="218"/>
-      <c r="AF8" s="218"/>
-      <c r="AG8" s="218"/>
-      <c r="AH8" s="218"/>
-      <c r="AI8" s="222"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="217"/>
+      <c r="U8" s="230" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="231"/>
+      <c r="Y8" s="231"/>
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="231"/>
+      <c r="AD8" s="231"/>
+      <c r="AE8" s="231"/>
+      <c r="AF8" s="231"/>
+      <c r="AG8" s="231"/>
+      <c r="AH8" s="231"/>
+      <c r="AI8" s="232"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="209" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
-      <c r="D9" s="213"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="216"/>
+      <c r="C9" s="216"/>
+      <c r="D9" s="217"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -10127,7 +10165,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
@@ -10185,7 +10223,7 @@
       <c r="A13" s="45"/>
       <c r="B13" s="71"/>
       <c r="C13" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -10222,7 +10260,7 @@
     </row>
     <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="209" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14" s="210"/>
       <c r="C14" s="210"/>
@@ -10262,7 +10300,7 @@
     <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI15" s="17"/>
     </row>
@@ -10308,23 +10346,23 @@
       <c r="AI17" s="30"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="223" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="224"/>
-      <c r="C18" s="224"/>
-      <c r="D18" s="225"/>
+      <c r="A18" s="227" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="228"/>
+      <c r="C18" s="228"/>
+      <c r="D18" s="229"/>
       <c r="E18" s="16"/>
       <c r="F18" s="20"/>
       <c r="J18" s="78"/>
       <c r="K18" s="20"/>
       <c r="O18" s="78"/>
-      <c r="Q18" s="223" t="s">
-        <v>43</v>
-      </c>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="225"/>
+      <c r="Q18" s="227" t="s">
+        <v>42</v>
+      </c>
+      <c r="R18" s="228"/>
+      <c r="S18" s="228"/>
+      <c r="T18" s="229"/>
       <c r="U18" s="78"/>
       <c r="V18" s="78"/>
       <c r="W18" s="78"/>
@@ -10341,16 +10379,16 @@
       <c r="E19" s="16"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="72" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J19" s="78"/>
       <c r="K19" s="20"/>
       <c r="L19" s="78"/>
       <c r="P19" s="72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="111"/>
       <c r="R19" s="112"/>
@@ -10361,12 +10399,12 @@
       <c r="W19" s="78"/>
       <c r="X19" s="78"/>
       <c r="AD19" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG19" s="78"/>
       <c r="AH19" s="78"/>
       <c r="AI19" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10395,13 +10433,13 @@
     </row>
     <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="209" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="216"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="38" t="s">
         <v>47</v>
-      </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
@@ -10415,36 +10453,36 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="209" t="s">
+        <v>48</v>
+      </c>
+      <c r="R21" s="216"/>
+      <c r="S21" s="216"/>
+      <c r="T21" s="217"/>
+      <c r="U21" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="212"/>
-      <c r="S21" s="212"/>
-      <c r="T21" s="213"/>
-      <c r="U21" s="217" t="s">
+      <c r="V21" s="231"/>
+      <c r="W21" s="231"/>
+      <c r="X21" s="231"/>
+      <c r="Y21" s="231"/>
+      <c r="Z21" s="231"/>
+      <c r="AA21" s="231"/>
+      <c r="AB21" s="231"/>
+      <c r="AC21" s="231"/>
+      <c r="AD21" s="231"/>
+      <c r="AE21" s="231"/>
+      <c r="AF21" s="231"/>
+      <c r="AG21" s="231"/>
+      <c r="AH21" s="231"/>
+      <c r="AI21" s="232"/>
+    </row>
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="V21" s="218"/>
-      <c r="W21" s="218"/>
-      <c r="X21" s="218"/>
-      <c r="Y21" s="218"/>
-      <c r="Z21" s="218"/>
-      <c r="AA21" s="218"/>
-      <c r="AB21" s="218"/>
-      <c r="AC21" s="218"/>
-      <c r="AD21" s="218"/>
-      <c r="AE21" s="218"/>
-      <c r="AF21" s="218"/>
-      <c r="AG21" s="218"/>
-      <c r="AH21" s="218"/>
-      <c r="AI21" s="222"/>
-    </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="214" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="216"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="234"/>
+      <c r="D22" s="235"/>
       <c r="E22" s="21"/>
       <c r="F22" s="22"/>
       <c r="G22" s="31"/>
@@ -10457,12 +10495,12 @@
       <c r="N22" s="31"/>
       <c r="O22" s="15"/>
       <c r="P22" s="31"/>
-      <c r="Q22" s="214" t="s">
-        <v>52</v>
-      </c>
-      <c r="R22" s="215"/>
-      <c r="S22" s="215"/>
-      <c r="T22" s="216"/>
+      <c r="Q22" s="233" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" s="234"/>
+      <c r="S22" s="234"/>
+      <c r="T22" s="235"/>
       <c r="U22" s="43"/>
       <c r="V22" s="31"/>
       <c r="W22" s="15"/>
@@ -10487,7 +10525,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H23" s="71"/>
       <c r="I23" s="71"/>
@@ -10498,7 +10536,7 @@
       <c r="N23" s="71"/>
       <c r="O23" s="71"/>
       <c r="P23" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q23" s="114"/>
       <c r="R23" s="115"/>
@@ -10511,7 +10549,7 @@
       <c r="Y23" s="14"/>
       <c r="Z23" s="71"/>
       <c r="AA23" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB23" s="71"/>
       <c r="AC23" s="71"/>
@@ -10521,44 +10559,44 @@
       <c r="AG23" s="24"/>
       <c r="AH23" s="14"/>
       <c r="AI23" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="239" t="s">
+      <c r="A24" s="224" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="225"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="226"/>
+      <c r="E24" s="230" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="240"/>
-      <c r="C24" s="240"/>
-      <c r="D24" s="241"/>
-      <c r="E24" s="217" t="s">
+      <c r="F24" s="231"/>
+      <c r="G24" s="231"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="231"/>
+      <c r="J24" s="231"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="231"/>
+      <c r="M24" s="231"/>
+      <c r="N24" s="231"/>
+      <c r="O24" s="231"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="236" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="218"/>
-      <c r="L24" s="218"/>
-      <c r="M24" s="218"/>
-      <c r="N24" s="218"/>
-      <c r="O24" s="218"/>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="226" t="s">
+      <c r="R24" s="237"/>
+      <c r="S24" s="237"/>
+      <c r="T24" s="238"/>
+      <c r="U24" s="214">
+        <v>3518</v>
+      </c>
+      <c r="V24" s="215"/>
+      <c r="W24" s="215"/>
+      <c r="X24" s="215"/>
+      <c r="Y24" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="R24" s="227"/>
-      <c r="S24" s="227"/>
-      <c r="T24" s="228"/>
-      <c r="U24" s="231">
-        <v>3518</v>
-      </c>
-      <c r="V24" s="232"/>
-      <c r="W24" s="232"/>
-      <c r="X24" s="232"/>
-      <c r="Y24" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="Z24" s="27"/>
       <c r="AA24" s="27"/>
@@ -10572,47 +10610,47 @@
       <c r="AI24" s="19"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="235" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="237"/>
+      <c r="A25" s="220" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="221"/>
+      <c r="C25" s="221"/>
+      <c r="D25" s="222"/>
       <c r="E25" s="21"/>
       <c r="F25" s="127"/>
       <c r="G25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="229" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="230"/>
-      <c r="J25" s="230"/>
-      <c r="K25" s="230"/>
-      <c r="L25" s="230"/>
-      <c r="M25" s="230"/>
-      <c r="N25" s="230"/>
-      <c r="O25" s="230"/>
-      <c r="P25" s="230"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="213"/>
+      <c r="K25" s="213"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
       <c r="Q25" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" s="31"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="U25" s="238"/>
-      <c r="V25" s="238"/>
-      <c r="W25" s="238"/>
-      <c r="X25" s="238"/>
-      <c r="Y25" s="238"/>
-      <c r="Z25" s="238"/>
-      <c r="AA25" s="238"/>
-      <c r="AB25" s="238"/>
-      <c r="AC25" s="238"/>
+        <v>57</v>
+      </c>
+      <c r="U25" s="223"/>
+      <c r="V25" s="223"/>
+      <c r="W25" s="223"/>
+      <c r="X25" s="223"/>
+      <c r="Y25" s="223"/>
+      <c r="Z25" s="223"/>
+      <c r="AA25" s="223"/>
+      <c r="AB25" s="223"/>
+      <c r="AC25" s="223"/>
       <c r="AD25" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" s="31"/>
       <c r="AF25" s="31"/>
@@ -10628,35 +10666,35 @@
       <c r="E26" s="16"/>
       <c r="F26" s="33"/>
       <c r="G26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="234"/>
-      <c r="I26" s="234"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="234"/>
-      <c r="L26" s="234"/>
-      <c r="M26" s="234"/>
-      <c r="N26" s="234"/>
-      <c r="O26" s="234"/>
-      <c r="P26" s="234"/>
+        <v>57</v>
+      </c>
+      <c r="H26" s="219"/>
+      <c r="I26" s="219"/>
+      <c r="J26" s="219"/>
+      <c r="K26" s="219"/>
+      <c r="L26" s="219"/>
+      <c r="M26" s="219"/>
+      <c r="N26" s="219"/>
+      <c r="O26" s="219"/>
+      <c r="P26" s="219"/>
       <c r="Q26" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" s="20"/>
       <c r="T26" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" s="234"/>
-      <c r="V26" s="234"/>
-      <c r="W26" s="234"/>
-      <c r="X26" s="234"/>
-      <c r="Y26" s="234"/>
-      <c r="Z26" s="234"/>
-      <c r="AA26" s="234"/>
-      <c r="AB26" s="234"/>
-      <c r="AC26" s="234"/>
+        <v>57</v>
+      </c>
+      <c r="U26" s="219"/>
+      <c r="V26" s="219"/>
+      <c r="W26" s="219"/>
+      <c r="X26" s="219"/>
+      <c r="Y26" s="219"/>
+      <c r="Z26" s="219"/>
+      <c r="AA26" s="219"/>
+      <c r="AB26" s="219"/>
+      <c r="AC26" s="219"/>
       <c r="AD26" s="72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI26" s="17"/>
     </row>
@@ -10668,46 +10706,46 @@
       <c r="E27" s="37"/>
       <c r="F27" s="128"/>
       <c r="G27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="233"/>
-      <c r="I27" s="233"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="233"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="233"/>
-      <c r="P27" s="233"/>
+        <v>57</v>
+      </c>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
+      <c r="M27" s="218"/>
+      <c r="N27" s="218"/>
+      <c r="O27" s="218"/>
+      <c r="P27" s="218"/>
       <c r="Q27" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" s="71"/>
       <c r="S27" s="24"/>
       <c r="T27" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" s="233"/>
-      <c r="V27" s="233"/>
-      <c r="W27" s="233"/>
-      <c r="X27" s="233"/>
-      <c r="Y27" s="233"/>
-      <c r="Z27" s="233"/>
-      <c r="AA27" s="233"/>
-      <c r="AB27" s="233"/>
-      <c r="AC27" s="233"/>
-      <c r="AD27" s="233"/>
-      <c r="AE27" s="233"/>
-      <c r="AF27" s="233"/>
-      <c r="AG27" s="233"/>
-      <c r="AH27" s="233"/>
+        <v>57</v>
+      </c>
+      <c r="U27" s="218"/>
+      <c r="V27" s="218"/>
+      <c r="W27" s="218"/>
+      <c r="X27" s="218"/>
+      <c r="Y27" s="218"/>
+      <c r="Z27" s="218"/>
+      <c r="AA27" s="218"/>
+      <c r="AB27" s="218"/>
+      <c r="AC27" s="218"/>
+      <c r="AD27" s="218"/>
+      <c r="AE27" s="218"/>
+      <c r="AF27" s="218"/>
+      <c r="AG27" s="218"/>
+      <c r="AH27" s="218"/>
       <c r="AI27" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="209" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="210"/>
       <c r="C28" s="210"/>
@@ -10796,14 +10834,31 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -10816,31 +10871,14 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11519,158 +11557,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
+      <c r="A1" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="199" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA001/登録用プロジェクト一覧</v>
       </c>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="157" t="str">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="206">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="192">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44805</v>
       </c>
-      <c r="AH1" s="207"/>
-      <c r="AI1" s="208"/>
+      <c r="AH1" s="193"/>
+      <c r="AI1" s="194"/>
     </row>
     <row r="2" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
+      <c r="A2" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="197"/>
       <c r="E2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="157" t="str">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="206" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="192">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="194"/>
     </row>
     <row r="3" spans="1:47" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="192" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="197"/>
       <c r="E3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="157" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="206" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="207"/>
-      <c r="AI3" s="208"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="194"/>
     </row>
     <row r="4" spans="1:47" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11"/>
@@ -11694,7 +11732,7 @@
     </row>
     <row r="5" spans="1:47" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="61"/>
       <c r="C5" s="10"/>
@@ -11793,232 +11831,232 @@
       <c r="AU6" s="61"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="242" t="s">
+      <c r="A7" s="304" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
+      <c r="P7" s="305"/>
+      <c r="Q7" s="305"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="305"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="305"/>
+      <c r="V7" s="305"/>
+      <c r="W7" s="305"/>
+      <c r="X7" s="305"/>
+      <c r="Y7" s="305"/>
+      <c r="Z7" s="305"/>
+      <c r="AA7" s="305"/>
+      <c r="AB7" s="306"/>
+      <c r="AC7" s="317" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="243"/>
-      <c r="M7" s="243"/>
-      <c r="N7" s="243"/>
-      <c r="O7" s="243"/>
-      <c r="P7" s="243"/>
-      <c r="Q7" s="243"/>
-      <c r="R7" s="243"/>
-      <c r="S7" s="243"/>
-      <c r="T7" s="243"/>
-      <c r="U7" s="243"/>
-      <c r="V7" s="243"/>
-      <c r="W7" s="243"/>
-      <c r="X7" s="243"/>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="243"/>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="244"/>
-      <c r="AC7" s="255" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD7" s="243"/>
-      <c r="AE7" s="243"/>
-      <c r="AF7" s="243"/>
-      <c r="AG7" s="243"/>
-      <c r="AH7" s="243"/>
-      <c r="AI7" s="256"/>
+      <c r="AD7" s="305"/>
+      <c r="AE7" s="305"/>
+      <c r="AF7" s="305"/>
+      <c r="AG7" s="305"/>
+      <c r="AH7" s="305"/>
+      <c r="AI7" s="318"/>
     </row>
     <row r="8" spans="1:47" s="118" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="307" t="s">
         <v>64</v>
-      </c>
-      <c r="B8" s="245" t="s">
-        <v>65</v>
       </c>
       <c r="C8" s="137"/>
       <c r="D8" s="137"/>
       <c r="E8" s="137"/>
       <c r="F8" s="138"/>
-      <c r="G8" s="245" t="s">
+      <c r="G8" s="307" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="308"/>
+      <c r="I8" s="310"/>
+      <c r="J8" s="307" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="246"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="245" t="s">
+      <c r="K8" s="308"/>
+      <c r="L8" s="308"/>
+      <c r="M8" s="308"/>
+      <c r="N8" s="308"/>
+      <c r="O8" s="308"/>
+      <c r="P8" s="310"/>
+      <c r="Q8" s="311" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
-      <c r="M8" s="246"/>
-      <c r="N8" s="246"/>
-      <c r="O8" s="246"/>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="249" t="s">
+      <c r="R8" s="313"/>
+      <c r="S8" s="311" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="251"/>
-      <c r="S8" s="249" t="s">
+      <c r="T8" s="312"/>
+      <c r="U8" s="313"/>
+      <c r="V8" s="307" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="250"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="245" t="s">
+      <c r="W8" s="308"/>
+      <c r="X8" s="308"/>
+      <c r="Y8" s="308"/>
+      <c r="Z8" s="308"/>
+      <c r="AA8" s="308"/>
+      <c r="AB8" s="309"/>
+      <c r="AC8" s="314" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="246"/>
-      <c r="X8" s="246"/>
-      <c r="Y8" s="246"/>
-      <c r="Z8" s="246"/>
-      <c r="AA8" s="246"/>
-      <c r="AB8" s="247"/>
-      <c r="AC8" s="252" t="s">
+      <c r="AD8" s="315"/>
+      <c r="AE8" s="315"/>
+      <c r="AF8" s="315"/>
+      <c r="AG8" s="315"/>
+      <c r="AH8" s="316" t="s">
         <v>71</v>
       </c>
-      <c r="AD8" s="253"/>
-      <c r="AE8" s="253"/>
-      <c r="AF8" s="253"/>
-      <c r="AG8" s="253"/>
-      <c r="AH8" s="254" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI8" s="254"/>
+      <c r="AI8" s="316"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A9" s="106">
         <v>1</v>
       </c>
-      <c r="B9" s="259" t="s">
+      <c r="B9" s="295" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="295" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="259" t="s">
+      <c r="H9" s="296"/>
+      <c r="I9" s="297"/>
+      <c r="J9" s="295" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="260"/>
-      <c r="I9" s="261"/>
-      <c r="J9" s="259" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="267"/>
-      <c r="L9" s="267"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="312">
+      <c r="K9" s="299"/>
+      <c r="L9" s="299"/>
+      <c r="M9" s="299"/>
+      <c r="N9" s="299"/>
+      <c r="O9" s="299"/>
+      <c r="P9" s="300"/>
+      <c r="Q9" s="259">
         <f>SUM('3.1.プロジェクト情報レコード'!V8:W23)+COUNT('3.1.プロジェクト情報レコード'!V8:W23)-1</f>
         <v>3518</v>
       </c>
-      <c r="R9" s="313"/>
-      <c r="S9" s="316" t="s">
+      <c r="R9" s="260"/>
+      <c r="S9" s="265" t="s">
+        <v>75</v>
+      </c>
+      <c r="T9" s="266"/>
+      <c r="U9" s="267"/>
+      <c r="V9" s="295" t="s">
         <v>76</v>
       </c>
-      <c r="T9" s="317"/>
-      <c r="U9" s="318"/>
-      <c r="V9" s="259" t="s">
+      <c r="W9" s="296"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="296"/>
+      <c r="Z9" s="296"/>
+      <c r="AA9" s="296"/>
+      <c r="AB9" s="298"/>
+      <c r="AC9" s="301" t="s">
         <v>77</v>
       </c>
-      <c r="W9" s="260"/>
-      <c r="X9" s="260"/>
-      <c r="Y9" s="260"/>
-      <c r="Z9" s="260"/>
-      <c r="AA9" s="260"/>
-      <c r="AB9" s="265"/>
-      <c r="AC9" s="271" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD9" s="306"/>
-      <c r="AE9" s="307"/>
-      <c r="AF9" s="307"/>
-      <c r="AG9" s="308"/>
-      <c r="AH9" s="314"/>
-      <c r="AI9" s="315"/>
+      <c r="AD9" s="249"/>
+      <c r="AE9" s="250"/>
+      <c r="AF9" s="250"/>
+      <c r="AG9" s="251"/>
+      <c r="AH9" s="261"/>
+      <c r="AI9" s="262"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="106">
         <v>2</v>
       </c>
-      <c r="B10" s="262"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="263"/>
-      <c r="I10" s="264"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="269"/>
-      <c r="L10" s="269"/>
-      <c r="M10" s="269"/>
-      <c r="N10" s="269"/>
-      <c r="O10" s="269"/>
-      <c r="P10" s="270"/>
-      <c r="Q10" s="279"/>
-      <c r="R10" s="280"/>
-      <c r="S10" s="284"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="286"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="263"/>
-      <c r="X10" s="263"/>
-      <c r="Y10" s="263"/>
-      <c r="Z10" s="263"/>
-      <c r="AA10" s="263"/>
-      <c r="AB10" s="266"/>
-      <c r="AC10" s="272"/>
-      <c r="AD10" s="309"/>
-      <c r="AE10" s="310"/>
-      <c r="AF10" s="310"/>
-      <c r="AG10" s="311"/>
-      <c r="AH10" s="257"/>
-      <c r="AI10" s="258"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="256"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="247"/>
+      <c r="R10" s="248"/>
+      <c r="S10" s="268"/>
+      <c r="T10" s="269"/>
+      <c r="U10" s="270"/>
+      <c r="V10" s="244"/>
+      <c r="W10" s="245"/>
+      <c r="X10" s="245"/>
+      <c r="Y10" s="245"/>
+      <c r="Z10" s="245"/>
+      <c r="AA10" s="245"/>
+      <c r="AB10" s="258"/>
+      <c r="AC10" s="302"/>
+      <c r="AD10" s="252"/>
+      <c r="AE10" s="253"/>
+      <c r="AF10" s="253"/>
+      <c r="AG10" s="254"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="264"/>
     </row>
     <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="106">
         <v>3</v>
       </c>
-      <c r="B11" s="262"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="264"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="283"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="269"/>
-      <c r="L11" s="269"/>
-      <c r="M11" s="269"/>
-      <c r="N11" s="269"/>
-      <c r="O11" s="269"/>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="280"/>
-      <c r="S11" s="284"/>
-      <c r="T11" s="285"/>
-      <c r="U11" s="286"/>
-      <c r="V11" s="262"/>
-      <c r="W11" s="263"/>
-      <c r="X11" s="263"/>
-      <c r="Y11" s="263"/>
-      <c r="Z11" s="263"/>
-      <c r="AA11" s="263"/>
-      <c r="AB11" s="266"/>
-      <c r="AC11" s="272"/>
-      <c r="AD11" s="309"/>
-      <c r="AE11" s="310"/>
-      <c r="AF11" s="310"/>
-      <c r="AG11" s="311"/>
-      <c r="AH11" s="257"/>
-      <c r="AI11" s="258"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="275"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="256"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="247"/>
+      <c r="R11" s="248"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="269"/>
+      <c r="U11" s="270"/>
+      <c r="V11" s="244"/>
+      <c r="W11" s="245"/>
+      <c r="X11" s="245"/>
+      <c r="Y11" s="245"/>
+      <c r="Z11" s="245"/>
+      <c r="AA11" s="245"/>
+      <c r="AB11" s="258"/>
+      <c r="AC11" s="302"/>
+      <c r="AD11" s="252"/>
+      <c r="AE11" s="253"/>
+      <c r="AF11" s="253"/>
+      <c r="AG11" s="254"/>
+      <c r="AH11" s="263"/>
+      <c r="AI11" s="264"/>
       <c r="AM11" s="72"/>
       <c r="AN11" s="72"/>
       <c r="AO11" s="72"/>
@@ -12028,40 +12066,40 @@
       <c r="A12" s="106">
         <v>4</v>
       </c>
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="264"/>
-      <c r="G12" s="281"/>
-      <c r="H12" s="282"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="269"/>
-      <c r="L12" s="269"/>
-      <c r="M12" s="269"/>
-      <c r="N12" s="269"/>
-      <c r="O12" s="269"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="279"/>
-      <c r="R12" s="280"/>
-      <c r="S12" s="284"/>
-      <c r="T12" s="285"/>
-      <c r="U12" s="286"/>
-      <c r="V12" s="262"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="263"/>
-      <c r="Y12" s="263"/>
-      <c r="Z12" s="263"/>
-      <c r="AA12" s="263"/>
-      <c r="AB12" s="266"/>
-      <c r="AC12" s="272"/>
-      <c r="AD12" s="300"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="269"/>
-      <c r="AG12" s="270"/>
-      <c r="AH12" s="274"/>
-      <c r="AI12" s="275"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="273"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="275"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="256"/>
+      <c r="M12" s="256"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="247"/>
+      <c r="R12" s="248"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="269"/>
+      <c r="U12" s="270"/>
+      <c r="V12" s="244"/>
+      <c r="W12" s="245"/>
+      <c r="X12" s="245"/>
+      <c r="Y12" s="245"/>
+      <c r="Z12" s="245"/>
+      <c r="AA12" s="245"/>
+      <c r="AB12" s="258"/>
+      <c r="AC12" s="302"/>
+      <c r="AD12" s="255"/>
+      <c r="AE12" s="256"/>
+      <c r="AF12" s="256"/>
+      <c r="AG12" s="257"/>
+      <c r="AH12" s="242"/>
+      <c r="AI12" s="243"/>
       <c r="AM12" s="72"/>
       <c r="AN12" s="72"/>
       <c r="AO12" s="72"/>
@@ -12071,40 +12109,40 @@
       <c r="A13" s="106">
         <v>5</v>
       </c>
-      <c r="B13" s="276"/>
-      <c r="C13" s="277"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="263"/>
-      <c r="I13" s="264"/>
-      <c r="J13" s="262"/>
-      <c r="K13" s="263"/>
-      <c r="L13" s="263"/>
-      <c r="M13" s="263"/>
-      <c r="N13" s="263"/>
-      <c r="O13" s="263"/>
-      <c r="P13" s="264"/>
-      <c r="Q13" s="279"/>
-      <c r="R13" s="280"/>
-      <c r="S13" s="262"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="264"/>
-      <c r="V13" s="262"/>
-      <c r="W13" s="263"/>
-      <c r="X13" s="263"/>
-      <c r="Y13" s="263"/>
-      <c r="Z13" s="263"/>
-      <c r="AA13" s="263"/>
-      <c r="AB13" s="266"/>
-      <c r="AC13" s="272"/>
-      <c r="AD13" s="300"/>
-      <c r="AE13" s="269"/>
-      <c r="AF13" s="269"/>
-      <c r="AG13" s="270"/>
-      <c r="AH13" s="274"/>
-      <c r="AI13" s="275"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="245"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="245"/>
+      <c r="M13" s="245"/>
+      <c r="N13" s="245"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="247"/>
+      <c r="R13" s="248"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="244"/>
+      <c r="W13" s="245"/>
+      <c r="X13" s="245"/>
+      <c r="Y13" s="245"/>
+      <c r="Z13" s="245"/>
+      <c r="AA13" s="245"/>
+      <c r="AB13" s="258"/>
+      <c r="AC13" s="302"/>
+      <c r="AD13" s="255"/>
+      <c r="AE13" s="256"/>
+      <c r="AF13" s="256"/>
+      <c r="AG13" s="257"/>
+      <c r="AH13" s="242"/>
+      <c r="AI13" s="243"/>
       <c r="AM13" s="61"/>
       <c r="AN13" s="61"/>
       <c r="AO13" s="61"/>
@@ -12114,165 +12152,165 @@
       <c r="A14" s="106">
         <v>6</v>
       </c>
-      <c r="B14" s="276"/>
-      <c r="C14" s="277"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="278"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="263"/>
-      <c r="I14" s="264"/>
-      <c r="J14" s="262"/>
-      <c r="K14" s="263"/>
-      <c r="L14" s="263"/>
-      <c r="M14" s="263"/>
-      <c r="N14" s="263"/>
-      <c r="O14" s="263"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="279"/>
-      <c r="R14" s="280"/>
-      <c r="S14" s="262"/>
-      <c r="T14" s="263"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="262"/>
-      <c r="W14" s="263"/>
-      <c r="X14" s="263"/>
-      <c r="Y14" s="263"/>
-      <c r="Z14" s="263"/>
-      <c r="AA14" s="263"/>
-      <c r="AB14" s="266"/>
-      <c r="AC14" s="272"/>
-      <c r="AD14" s="300"/>
-      <c r="AE14" s="269"/>
-      <c r="AF14" s="269"/>
-      <c r="AG14" s="270"/>
-      <c r="AH14" s="274"/>
-      <c r="AI14" s="275"/>
+      <c r="B14" s="284"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="285"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="245"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="245"/>
+      <c r="L14" s="245"/>
+      <c r="M14" s="245"/>
+      <c r="N14" s="245"/>
+      <c r="O14" s="245"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="247"/>
+      <c r="R14" s="248"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
+      <c r="U14" s="246"/>
+      <c r="V14" s="244"/>
+      <c r="W14" s="245"/>
+      <c r="X14" s="245"/>
+      <c r="Y14" s="245"/>
+      <c r="Z14" s="245"/>
+      <c r="AA14" s="245"/>
+      <c r="AB14" s="258"/>
+      <c r="AC14" s="302"/>
+      <c r="AD14" s="255"/>
+      <c r="AE14" s="256"/>
+      <c r="AF14" s="256"/>
+      <c r="AG14" s="257"/>
+      <c r="AH14" s="242"/>
+      <c r="AI14" s="243"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A15" s="107">
         <v>7</v>
       </c>
-      <c r="B15" s="276"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="263"/>
-      <c r="I15" s="264"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="263"/>
-      <c r="L15" s="263"/>
-      <c r="M15" s="263"/>
-      <c r="N15" s="263"/>
-      <c r="O15" s="263"/>
-      <c r="P15" s="264"/>
-      <c r="Q15" s="279"/>
-      <c r="R15" s="280"/>
-      <c r="S15" s="262"/>
-      <c r="T15" s="263"/>
-      <c r="U15" s="264"/>
-      <c r="V15" s="262"/>
-      <c r="W15" s="263"/>
-      <c r="X15" s="263"/>
-      <c r="Y15" s="263"/>
-      <c r="Z15" s="263"/>
-      <c r="AA15" s="263"/>
-      <c r="AB15" s="266"/>
-      <c r="AC15" s="272"/>
-      <c r="AD15" s="300"/>
-      <c r="AE15" s="269"/>
-      <c r="AF15" s="269"/>
-      <c r="AG15" s="270"/>
-      <c r="AH15" s="274"/>
-      <c r="AI15" s="275"/>
+      <c r="B15" s="284"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="245"/>
+      <c r="L15" s="245"/>
+      <c r="M15" s="245"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="246"/>
+      <c r="Q15" s="247"/>
+      <c r="R15" s="248"/>
+      <c r="S15" s="244"/>
+      <c r="T15" s="245"/>
+      <c r="U15" s="246"/>
+      <c r="V15" s="244"/>
+      <c r="W15" s="245"/>
+      <c r="X15" s="245"/>
+      <c r="Y15" s="245"/>
+      <c r="Z15" s="245"/>
+      <c r="AA15" s="245"/>
+      <c r="AB15" s="258"/>
+      <c r="AC15" s="302"/>
+      <c r="AD15" s="255"/>
+      <c r="AE15" s="256"/>
+      <c r="AF15" s="256"/>
+      <c r="AG15" s="257"/>
+      <c r="AH15" s="242"/>
+      <c r="AI15" s="243"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A16" s="107">
         <v>8</v>
       </c>
-      <c r="B16" s="276"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="278"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="263"/>
-      <c r="I16" s="264"/>
-      <c r="J16" s="262"/>
-      <c r="K16" s="263"/>
-      <c r="L16" s="263"/>
-      <c r="M16" s="263"/>
-      <c r="N16" s="263"/>
-      <c r="O16" s="263"/>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="279"/>
-      <c r="R16" s="280"/>
-      <c r="S16" s="262"/>
-      <c r="T16" s="263"/>
-      <c r="U16" s="264"/>
-      <c r="V16" s="262"/>
-      <c r="W16" s="263"/>
-      <c r="X16" s="263"/>
-      <c r="Y16" s="263"/>
-      <c r="Z16" s="263"/>
-      <c r="AA16" s="263"/>
-      <c r="AB16" s="266"/>
-      <c r="AC16" s="272"/>
-      <c r="AD16" s="300"/>
-      <c r="AE16" s="269"/>
-      <c r="AF16" s="269"/>
-      <c r="AG16" s="270"/>
-      <c r="AH16" s="274"/>
-      <c r="AI16" s="275"/>
+      <c r="B16" s="284"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="285"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="245"/>
+      <c r="I16" s="246"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="245"/>
+      <c r="L16" s="245"/>
+      <c r="M16" s="245"/>
+      <c r="N16" s="245"/>
+      <c r="O16" s="245"/>
+      <c r="P16" s="246"/>
+      <c r="Q16" s="247"/>
+      <c r="R16" s="248"/>
+      <c r="S16" s="244"/>
+      <c r="T16" s="245"/>
+      <c r="U16" s="246"/>
+      <c r="V16" s="244"/>
+      <c r="W16" s="245"/>
+      <c r="X16" s="245"/>
+      <c r="Y16" s="245"/>
+      <c r="Z16" s="245"/>
+      <c r="AA16" s="245"/>
+      <c r="AB16" s="258"/>
+      <c r="AC16" s="302"/>
+      <c r="AD16" s="255"/>
+      <c r="AE16" s="256"/>
+      <c r="AF16" s="256"/>
+      <c r="AG16" s="257"/>
+      <c r="AH16" s="242"/>
+      <c r="AI16" s="243"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A17" s="108">
         <v>9</v>
       </c>
-      <c r="B17" s="297"/>
-      <c r="C17" s="298"/>
-      <c r="D17" s="298"/>
-      <c r="E17" s="298"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="290"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="294"/>
-      <c r="J17" s="290"/>
-      <c r="K17" s="291"/>
-      <c r="L17" s="291"/>
-      <c r="M17" s="291"/>
-      <c r="N17" s="291"/>
-      <c r="O17" s="291"/>
-      <c r="P17" s="294"/>
-      <c r="Q17" s="295"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="290"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="294"/>
-      <c r="V17" s="290"/>
-      <c r="W17" s="291"/>
-      <c r="X17" s="291"/>
-      <c r="Y17" s="291"/>
-      <c r="Z17" s="291"/>
-      <c r="AA17" s="291"/>
-      <c r="AB17" s="292"/>
-      <c r="AC17" s="273"/>
-      <c r="AD17" s="301"/>
-      <c r="AE17" s="302"/>
-      <c r="AF17" s="302"/>
-      <c r="AG17" s="303"/>
-      <c r="AH17" s="304"/>
-      <c r="AI17" s="305"/>
+      <c r="B17" s="287"/>
+      <c r="C17" s="288"/>
+      <c r="D17" s="288"/>
+      <c r="E17" s="288"/>
+      <c r="F17" s="289"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="278"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="277"/>
+      <c r="K17" s="278"/>
+      <c r="L17" s="278"/>
+      <c r="M17" s="278"/>
+      <c r="N17" s="278"/>
+      <c r="O17" s="278"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="282"/>
+      <c r="R17" s="283"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="278"/>
+      <c r="U17" s="281"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="278"/>
+      <c r="X17" s="278"/>
+      <c r="Y17" s="278"/>
+      <c r="Z17" s="278"/>
+      <c r="AA17" s="278"/>
+      <c r="AB17" s="279"/>
+      <c r="AC17" s="303"/>
+      <c r="AD17" s="290"/>
+      <c r="AE17" s="291"/>
+      <c r="AF17" s="291"/>
+      <c r="AG17" s="292"/>
+      <c r="AH17" s="293"/>
+      <c r="AI17" s="294"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="293"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="238"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="238"/>
-      <c r="F18" s="238"/>
+      <c r="A18" s="280"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -12296,22 +12334,22 @@
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
       <c r="AC18" s="33"/>
-      <c r="AD18" s="289"/>
-      <c r="AE18" s="289"/>
-      <c r="AF18" s="289"/>
-      <c r="AG18" s="289"/>
-      <c r="AH18" s="289"/>
+      <c r="AD18" s="276"/>
+      <c r="AE18" s="276"/>
+      <c r="AF18" s="276"/>
+      <c r="AG18" s="276"/>
+      <c r="AH18" s="276"/>
       <c r="AI18" s="59"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="287" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="288"/>
-      <c r="C19" s="288"/>
-      <c r="D19" s="288"/>
-      <c r="E19" s="288"/>
-      <c r="F19" s="288"/>
+      <c r="A19" s="271" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
       <c r="G19" s="43"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
@@ -12353,7 +12391,7 @@
     <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
       <c r="C20" s="125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -12399,7 +12437,7 @@
     <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32"/>
       <c r="D21" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="61"/>
       <c r="G21" s="72"/>
@@ -12433,7 +12471,7 @@
       <c r="A22" s="32"/>
       <c r="C22" s="61"/>
       <c r="E22" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="123"/>
       <c r="G22" s="123"/>
@@ -12464,7 +12502,7 @@
       <c r="A23" s="32"/>
       <c r="C23" s="61"/>
       <c r="E23" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="123"/>
       <c r="G23" s="123"/>
@@ -12494,7 +12532,7 @@
     <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32"/>
       <c r="E24" s="126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="123"/>
       <c r="G24" s="123"/>
@@ -12738,6 +12776,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="G15:I15"/>
@@ -12762,85 +12879,6 @@
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations disablePrompts="1" count="2">
@@ -12882,163 +12920,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:110" s="57" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="192" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="194"/>
+      <c r="A1" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="197"/>
       <c r="E1" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="196" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="198"/>
-      <c r="S1" s="205" t="str">
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="199" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="201"/>
+      <c r="S1" s="208" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA001/登録用プロジェクト一覧</v>
       </c>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="192" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="194"/>
-      <c r="AC1" s="157" t="str">
+      <c r="T1" s="178"/>
+      <c r="U1" s="178"/>
+      <c r="V1" s="178"/>
+      <c r="W1" s="178"/>
+      <c r="X1" s="178"/>
+      <c r="Y1" s="178"/>
+      <c r="Z1" s="179"/>
+      <c r="AA1" s="196" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="336">
+      <c r="AD1" s="149"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="322">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>44805</v>
       </c>
-      <c r="AH1" s="337"/>
-      <c r="AI1" s="338"/>
+      <c r="AH1" s="323"/>
+      <c r="AI1" s="324"/>
     </row>
     <row r="2" spans="1:110" s="57" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="194"/>
+      <c r="A2" s="196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="197"/>
       <c r="E2" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="177"/>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="157" t="str">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="156"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="204"/>
+      <c r="S2" s="180"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="181"/>
+      <c r="W2" s="181"/>
+      <c r="X2" s="181"/>
+      <c r="Y2" s="181"/>
+      <c r="Z2" s="182"/>
+      <c r="AA2" s="196" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="146"/>
-      <c r="AE2" s="146"/>
-      <c r="AF2" s="147"/>
-      <c r="AG2" s="336" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="149"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="150"/>
+      <c r="AG2" s="322">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="337"/>
-      <c r="AI2" s="338"/>
+        <v>44907</v>
+      </c>
+      <c r="AH2" s="323"/>
+      <c r="AI2" s="324"/>
     </row>
     <row r="3" spans="1:110" s="57" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="192" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="194"/>
+      <c r="A3" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="197"/>
       <c r="E3" s="195" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="202"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="204"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="181"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="181"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="181"/>
-      <c r="Y3" s="181"/>
-      <c r="Z3" s="182"/>
-      <c r="AA3" s="192"/>
-      <c r="AB3" s="194"/>
-      <c r="AC3" s="157" t="str">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="156"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="206"/>
+      <c r="Q3" s="206"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="196"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="146"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="336" t="str">
+      <c r="AD3" s="149"/>
+      <c r="AE3" s="149"/>
+      <c r="AF3" s="150"/>
+      <c r="AG3" s="322" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="337"/>
-      <c r="AI3" s="338"/>
+      <c r="AH3" s="323"/>
+      <c r="AI3" s="324"/>
     </row>
     <row r="4" spans="1:110" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:110" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -13052,71 +13090,71 @@
     </row>
     <row r="7" spans="1:110" s="121" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="119" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="319" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="330" t="s">
+      <c r="C7" s="320"/>
+      <c r="D7" s="320"/>
+      <c r="E7" s="320"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="319" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="331"/>
-      <c r="D7" s="331"/>
-      <c r="E7" s="331"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="330" t="s">
+      <c r="H7" s="320"/>
+      <c r="I7" s="320"/>
+      <c r="J7" s="320"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="319" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="331"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="331"/>
-      <c r="K7" s="332"/>
-      <c r="L7" s="330" t="s">
+      <c r="M7" s="320"/>
+      <c r="N7" s="320"/>
+      <c r="O7" s="320"/>
+      <c r="P7" s="321"/>
+      <c r="Q7" s="120" t="s">
         <v>86</v>
       </c>
-      <c r="M7" s="331"/>
-      <c r="N7" s="331"/>
-      <c r="O7" s="331"/>
-      <c r="P7" s="332"/>
-      <c r="Q7" s="120" t="s">
+      <c r="R7" s="334" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="333" t="s">
+      <c r="S7" s="334"/>
+      <c r="T7" s="334"/>
+      <c r="U7" s="334"/>
+      <c r="V7" s="325" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="333"/>
-      <c r="T7" s="333"/>
-      <c r="U7" s="333"/>
-      <c r="V7" s="339" t="s">
+      <c r="W7" s="325"/>
+      <c r="X7" s="326" t="s">
         <v>89</v>
       </c>
-      <c r="W7" s="339"/>
-      <c r="X7" s="340" t="s">
+      <c r="Y7" s="327"/>
+      <c r="Z7" s="319" t="s">
         <v>90</v>
       </c>
-      <c r="Y7" s="341"/>
-      <c r="Z7" s="330" t="s">
+      <c r="AA7" s="321"/>
+      <c r="AB7" s="319" t="s">
         <v>91</v>
       </c>
-      <c r="AA7" s="332"/>
-      <c r="AB7" s="330" t="s">
+      <c r="AC7" s="321"/>
+      <c r="AD7" s="319" t="s">
         <v>92</v>
       </c>
-      <c r="AC7" s="332"/>
-      <c r="AD7" s="330" t="s">
+      <c r="AE7" s="321"/>
+      <c r="AF7" s="319" t="s">
         <v>93</v>
       </c>
-      <c r="AE7" s="332"/>
-      <c r="AF7" s="330" t="s">
+      <c r="AG7" s="320"/>
+      <c r="AH7" s="321"/>
+      <c r="AI7" s="319" t="s">
         <v>94</v>
       </c>
-      <c r="AG7" s="331"/>
-      <c r="AH7" s="332"/>
-      <c r="AI7" s="330" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ7" s="331"/>
-      <c r="AK7" s="331"/>
-      <c r="AL7" s="331"/>
-      <c r="AM7" s="331"/>
-      <c r="AN7" s="332"/>
+      <c r="AJ7" s="320"/>
+      <c r="AK7" s="320"/>
+      <c r="AL7" s="320"/>
+      <c r="AM7" s="320"/>
+      <c r="AN7" s="321"/>
       <c r="BN7" s="122"/>
       <c r="BO7" s="122"/>
       <c r="BP7" s="122"/>
@@ -13167,69 +13205,69 @@
       <c r="A8" s="89">
         <v>1</v>
       </c>
-      <c r="B8" s="322" t="s">
+      <c r="B8" s="328" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="136" t="s">
         <v>96</v>
-      </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="136" t="s">
-        <v>97</v>
       </c>
       <c r="H8" s="137"/>
       <c r="I8" s="137"/>
       <c r="J8" s="137"/>
       <c r="K8" s="138"/>
-      <c r="L8" s="319" t="s">
-        <v>98</v>
+      <c r="L8" s="330" t="s">
+        <v>95</v>
       </c>
       <c r="M8" s="137"/>
       <c r="N8" s="137"/>
       <c r="O8" s="137"/>
       <c r="P8" s="138"/>
       <c r="Q8" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="R8" s="319" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="320"/>
-      <c r="T8" s="320"/>
-      <c r="U8" s="321"/>
-      <c r="V8" s="325">
+        <v>153</v>
+      </c>
+      <c r="R8" s="330" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="332"/>
+      <c r="T8" s="332"/>
+      <c r="U8" s="331"/>
+      <c r="V8" s="340">
         <v>9</v>
       </c>
-      <c r="W8" s="326"/>
-      <c r="X8" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y8" s="324"/>
-      <c r="Z8" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA8" s="321"/>
-      <c r="AB8" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC8" s="321"/>
-      <c r="AD8" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE8" s="324"/>
-      <c r="AF8" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG8" s="320"/>
-      <c r="AH8" s="321"/>
-      <c r="AI8" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ8" s="323"/>
-      <c r="AK8" s="323"/>
-      <c r="AL8" s="323"/>
-      <c r="AM8" s="323"/>
-      <c r="AN8" s="324"/>
+      <c r="W8" s="341"/>
+      <c r="X8" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" s="329"/>
+      <c r="Z8" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA8" s="331"/>
+      <c r="AB8" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC8" s="331"/>
+      <c r="AD8" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" s="329"/>
+      <c r="AF8" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG8" s="332"/>
+      <c r="AH8" s="331"/>
+      <c r="AI8" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ8" s="333"/>
+      <c r="AK8" s="333"/>
+      <c r="AL8" s="333"/>
+      <c r="AM8" s="333"/>
+      <c r="AN8" s="329"/>
       <c r="AS8" s="82"/>
       <c r="AT8" s="82"/>
       <c r="AU8" s="85"/>
@@ -13270,69 +13308,69 @@
       <c r="A9" s="89">
         <v>2</v>
       </c>
-      <c r="B9" s="130" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
+      <c r="B9" s="186" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
       <c r="G9" s="136" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H9" s="137"/>
       <c r="I9" s="137"/>
       <c r="J9" s="137"/>
       <c r="K9" s="138"/>
-      <c r="L9" s="319" t="s">
-        <v>104</v>
+      <c r="L9" s="330" t="s">
+        <v>102</v>
       </c>
       <c r="M9" s="137"/>
       <c r="N9" s="137"/>
       <c r="O9" s="137"/>
       <c r="P9" s="138"/>
       <c r="Q9" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="R9" s="330" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="332"/>
+      <c r="T9" s="332"/>
+      <c r="U9" s="331"/>
+      <c r="V9" s="340">
+        <v>384</v>
+      </c>
+      <c r="W9" s="341"/>
+      <c r="X9" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="S9" s="320"/>
-      <c r="T9" s="320"/>
-      <c r="U9" s="321"/>
-      <c r="V9" s="325">
-        <v>384</v>
-      </c>
-      <c r="W9" s="326"/>
-      <c r="X9" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y9" s="324"/>
-      <c r="Z9" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA9" s="321"/>
-      <c r="AB9" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC9" s="321"/>
-      <c r="AD9" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE9" s="324"/>
-      <c r="AF9" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG9" s="320"/>
-      <c r="AH9" s="321"/>
-      <c r="AI9" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ9" s="323"/>
-      <c r="AK9" s="323"/>
-      <c r="AL9" s="323"/>
-      <c r="AM9" s="323"/>
-      <c r="AN9" s="324"/>
+      <c r="Y9" s="329"/>
+      <c r="Z9" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="331"/>
+      <c r="AB9" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC9" s="331"/>
+      <c r="AD9" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" s="329"/>
+      <c r="AF9" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG9" s="332"/>
+      <c r="AH9" s="331"/>
+      <c r="AI9" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ9" s="333"/>
+      <c r="AK9" s="333"/>
+      <c r="AL9" s="333"/>
+      <c r="AM9" s="333"/>
+      <c r="AN9" s="329"/>
       <c r="AS9" s="82"/>
       <c r="AT9" s="82"/>
       <c r="AU9" s="85"/>
@@ -13373,70 +13411,70 @@
       <c r="A10" s="89">
         <v>3</v>
       </c>
-      <c r="B10" s="130" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
+      <c r="B10" s="186" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
       <c r="G10" s="136" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="137"/>
       <c r="I10" s="137"/>
       <c r="J10" s="137"/>
       <c r="K10" s="138"/>
       <c r="L10" s="136" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M10" s="137"/>
       <c r="N10" s="137"/>
       <c r="O10" s="137"/>
       <c r="P10" s="138"/>
       <c r="Q10" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="S10" s="320"/>
-      <c r="T10" s="320"/>
-      <c r="U10" s="321"/>
-      <c r="V10" s="325">
+        <v>97</v>
+      </c>
+      <c r="R10" s="330" t="s">
+        <v>103</v>
+      </c>
+      <c r="S10" s="332"/>
+      <c r="T10" s="332"/>
+      <c r="U10" s="331"/>
+      <c r="V10" s="340">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="326"/>
-      <c r="X10" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y10" s="324"/>
-      <c r="Z10" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA10" s="321"/>
-      <c r="AB10" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC10" s="321"/>
-      <c r="AD10" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE10" s="324"/>
-      <c r="AF10" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG10" s="320"/>
-      <c r="AH10" s="321"/>
-      <c r="AI10" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ10" s="323"/>
-      <c r="AK10" s="323"/>
-      <c r="AL10" s="323"/>
-      <c r="AM10" s="323"/>
-      <c r="AN10" s="324"/>
+      <c r="W10" s="341"/>
+      <c r="X10" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" s="329"/>
+      <c r="Z10" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" s="331"/>
+      <c r="AB10" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC10" s="331"/>
+      <c r="AD10" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE10" s="329"/>
+      <c r="AF10" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG10" s="332"/>
+      <c r="AH10" s="331"/>
+      <c r="AI10" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ10" s="333"/>
+      <c r="AK10" s="333"/>
+      <c r="AL10" s="333"/>
+      <c r="AM10" s="333"/>
+      <c r="AN10" s="329"/>
       <c r="AS10" s="82"/>
       <c r="AT10" s="82"/>
       <c r="AU10" s="85"/>
@@ -13477,70 +13515,70 @@
       <c r="A11" s="89">
         <v>4</v>
       </c>
-      <c r="B11" s="130" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
+      <c r="B11" s="186" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="188"/>
       <c r="G11" s="136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H11" s="137"/>
       <c r="I11" s="137"/>
       <c r="J11" s="137"/>
       <c r="K11" s="138"/>
       <c r="L11" s="136" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M11" s="137"/>
       <c r="N11" s="137"/>
       <c r="O11" s="137"/>
       <c r="P11" s="138"/>
       <c r="Q11" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="R11" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="S11" s="320"/>
-      <c r="T11" s="320"/>
-      <c r="U11" s="321"/>
-      <c r="V11" s="325">
+        <v>97</v>
+      </c>
+      <c r="R11" s="330" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="332"/>
+      <c r="T11" s="332"/>
+      <c r="U11" s="331"/>
+      <c r="V11" s="340">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="326"/>
-      <c r="X11" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y11" s="324"/>
-      <c r="Z11" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA11" s="321"/>
-      <c r="AB11" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC11" s="321"/>
-      <c r="AD11" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE11" s="324"/>
-      <c r="AF11" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG11" s="320"/>
-      <c r="AH11" s="321"/>
-      <c r="AI11" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ11" s="323"/>
-      <c r="AK11" s="323"/>
-      <c r="AL11" s="323"/>
-      <c r="AM11" s="323"/>
-      <c r="AN11" s="324"/>
+      <c r="W11" s="341"/>
+      <c r="X11" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="329"/>
+      <c r="Z11" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA11" s="331"/>
+      <c r="AB11" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC11" s="331"/>
+      <c r="AD11" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" s="329"/>
+      <c r="AF11" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" s="332"/>
+      <c r="AH11" s="331"/>
+      <c r="AI11" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ11" s="333"/>
+      <c r="AK11" s="333"/>
+      <c r="AL11" s="333"/>
+      <c r="AM11" s="333"/>
+      <c r="AN11" s="329"/>
       <c r="AS11" s="82"/>
       <c r="AT11" s="82"/>
       <c r="AU11" s="85"/>
@@ -13581,69 +13619,69 @@
       <c r="A12" s="89">
         <v>5</v>
       </c>
-      <c r="B12" s="130" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
+      <c r="B12" s="186" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="187"/>
+      <c r="D12" s="187"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="188"/>
       <c r="G12" s="136" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H12" s="137"/>
       <c r="I12" s="137"/>
       <c r="J12" s="137"/>
       <c r="K12" s="138"/>
       <c r="L12" s="136" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M12" s="137"/>
       <c r="N12" s="137"/>
       <c r="O12" s="137"/>
       <c r="P12" s="138"/>
       <c r="Q12" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="R12" s="330" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" s="332"/>
+      <c r="T12" s="332"/>
+      <c r="U12" s="331"/>
+      <c r="V12" s="340">
+        <v>10</v>
+      </c>
+      <c r="W12" s="341"/>
+      <c r="X12" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="319" t="s">
-        <v>113</v>
-      </c>
-      <c r="S12" s="320"/>
-      <c r="T12" s="320"/>
-      <c r="U12" s="321"/>
-      <c r="V12" s="325">
-        <v>10</v>
-      </c>
-      <c r="W12" s="326"/>
-      <c r="X12" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y12" s="324"/>
-      <c r="Z12" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA12" s="321"/>
-      <c r="AB12" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC12" s="321"/>
-      <c r="AD12" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE12" s="324"/>
-      <c r="AF12" s="319" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG12" s="320"/>
-      <c r="AH12" s="321"/>
-      <c r="AI12" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ12" s="323"/>
-      <c r="AK12" s="323"/>
-      <c r="AL12" s="323"/>
-      <c r="AM12" s="323"/>
-      <c r="AN12" s="324"/>
+      <c r="Y12" s="329"/>
+      <c r="Z12" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" s="331"/>
+      <c r="AB12" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="331"/>
+      <c r="AD12" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" s="329"/>
+      <c r="AF12" s="330" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG12" s="332"/>
+      <c r="AH12" s="331"/>
+      <c r="AI12" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ12" s="333"/>
+      <c r="AK12" s="333"/>
+      <c r="AL12" s="333"/>
+      <c r="AM12" s="333"/>
+      <c r="AN12" s="329"/>
       <c r="AS12" s="82"/>
       <c r="AT12" s="82"/>
       <c r="AU12" s="85"/>
@@ -13684,69 +13722,69 @@
       <c r="A13" s="89">
         <v>6</v>
       </c>
-      <c r="B13" s="130" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
+      <c r="B13" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
       <c r="G13" s="136" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H13" s="137"/>
       <c r="I13" s="137"/>
       <c r="J13" s="137"/>
       <c r="K13" s="138"/>
       <c r="L13" s="136" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" s="137"/>
       <c r="N13" s="137"/>
       <c r="O13" s="137"/>
       <c r="P13" s="138"/>
       <c r="Q13" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="330" t="s">
+        <v>111</v>
+      </c>
+      <c r="S13" s="332"/>
+      <c r="T13" s="332"/>
+      <c r="U13" s="331"/>
+      <c r="V13" s="340">
+        <v>10</v>
+      </c>
+      <c r="W13" s="341"/>
+      <c r="X13" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="R13" s="319" t="s">
-        <v>113</v>
-      </c>
-      <c r="S13" s="320"/>
-      <c r="T13" s="320"/>
-      <c r="U13" s="321"/>
-      <c r="V13" s="325">
-        <v>10</v>
-      </c>
-      <c r="W13" s="326"/>
-      <c r="X13" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" s="324"/>
-      <c r="Z13" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA13" s="321"/>
-      <c r="AB13" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC13" s="321"/>
-      <c r="AD13" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE13" s="324"/>
-      <c r="AF13" s="319" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG13" s="320"/>
-      <c r="AH13" s="321"/>
-      <c r="AI13" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ13" s="323"/>
-      <c r="AK13" s="323"/>
-      <c r="AL13" s="323"/>
-      <c r="AM13" s="323"/>
-      <c r="AN13" s="324"/>
+      <c r="Y13" s="329"/>
+      <c r="Z13" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" s="331"/>
+      <c r="AB13" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC13" s="331"/>
+      <c r="AD13" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" s="329"/>
+      <c r="AF13" s="330" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG13" s="332"/>
+      <c r="AH13" s="331"/>
+      <c r="AI13" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ13" s="333"/>
+      <c r="AK13" s="333"/>
+      <c r="AL13" s="333"/>
+      <c r="AM13" s="333"/>
+      <c r="AN13" s="329"/>
       <c r="AS13" s="82"/>
       <c r="AT13" s="82"/>
       <c r="AU13" s="85"/>
@@ -13787,69 +13825,69 @@
       <c r="A14" s="89">
         <v>7</v>
       </c>
-      <c r="B14" s="322" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="319" t="s">
-        <v>118</v>
+      <c r="B14" s="328" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="330" t="s">
+        <v>116</v>
       </c>
       <c r="H14" s="137"/>
       <c r="I14" s="137"/>
       <c r="J14" s="137"/>
       <c r="K14" s="138"/>
-      <c r="L14" s="319" t="s">
-        <v>117</v>
+      <c r="L14" s="330" t="s">
+        <v>115</v>
       </c>
       <c r="M14" s="137"/>
       <c r="N14" s="137"/>
       <c r="O14" s="137"/>
       <c r="P14" s="138"/>
       <c r="Q14" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" s="330" t="s">
+        <v>98</v>
+      </c>
+      <c r="S14" s="332"/>
+      <c r="T14" s="332"/>
+      <c r="U14" s="331"/>
+      <c r="V14" s="340">
+        <v>4</v>
+      </c>
+      <c r="W14" s="341"/>
+      <c r="X14" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="R14" s="319" t="s">
-        <v>100</v>
-      </c>
-      <c r="S14" s="320"/>
-      <c r="T14" s="320"/>
-      <c r="U14" s="321"/>
-      <c r="V14" s="325">
-        <v>4</v>
-      </c>
-      <c r="W14" s="326"/>
-      <c r="X14" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y14" s="324"/>
-      <c r="Z14" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA14" s="321"/>
-      <c r="AB14" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC14" s="321"/>
-      <c r="AD14" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE14" s="324"/>
-      <c r="AF14" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG14" s="320"/>
-      <c r="AH14" s="321"/>
-      <c r="AI14" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ14" s="323"/>
-      <c r="AK14" s="323"/>
-      <c r="AL14" s="323"/>
-      <c r="AM14" s="323"/>
-      <c r="AN14" s="324"/>
+      <c r="Y14" s="329"/>
+      <c r="Z14" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA14" s="331"/>
+      <c r="AB14" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC14" s="331"/>
+      <c r="AD14" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" s="329"/>
+      <c r="AF14" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG14" s="332"/>
+      <c r="AH14" s="331"/>
+      <c r="AI14" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ14" s="333"/>
+      <c r="AK14" s="333"/>
+      <c r="AL14" s="333"/>
+      <c r="AM14" s="333"/>
+      <c r="AN14" s="329"/>
       <c r="AS14" s="82"/>
       <c r="AT14" s="82"/>
       <c r="AU14" s="85"/>
@@ -13890,69 +13928,69 @@
       <c r="A15" s="89">
         <v>8</v>
       </c>
-      <c r="B15" s="130" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
+      <c r="B15" s="186" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="187"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="136" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H15" s="137"/>
       <c r="I15" s="137"/>
       <c r="J15" s="137"/>
       <c r="K15" s="138"/>
-      <c r="L15" s="319" t="s">
-        <v>98</v>
+      <c r="L15" s="330" t="s">
+        <v>154</v>
       </c>
       <c r="M15" s="137"/>
       <c r="N15" s="137"/>
       <c r="O15" s="137"/>
       <c r="P15" s="138"/>
       <c r="Q15" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="330" t="s">
+        <v>98</v>
+      </c>
+      <c r="S15" s="332"/>
+      <c r="T15" s="332"/>
+      <c r="U15" s="331"/>
+      <c r="V15" s="340">
+        <v>9</v>
+      </c>
+      <c r="W15" s="341"/>
+      <c r="X15" s="328" t="s">
         <v>99</v>
       </c>
-      <c r="R15" s="319" t="s">
-        <v>100</v>
-      </c>
-      <c r="S15" s="320"/>
-      <c r="T15" s="320"/>
-      <c r="U15" s="321"/>
-      <c r="V15" s="325">
-        <v>9</v>
-      </c>
-      <c r="W15" s="326"/>
-      <c r="X15" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="324"/>
-      <c r="Z15" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA15" s="321"/>
-      <c r="AB15" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC15" s="321"/>
-      <c r="AD15" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE15" s="324"/>
-      <c r="AF15" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG15" s="320"/>
-      <c r="AH15" s="321"/>
-      <c r="AI15" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ15" s="323"/>
-      <c r="AK15" s="323"/>
-      <c r="AL15" s="323"/>
-      <c r="AM15" s="323"/>
-      <c r="AN15" s="324"/>
+      <c r="Y15" s="329"/>
+      <c r="Z15" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" s="331"/>
+      <c r="AB15" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC15" s="331"/>
+      <c r="AD15" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" s="329"/>
+      <c r="AF15" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG15" s="332"/>
+      <c r="AH15" s="331"/>
+      <c r="AI15" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ15" s="333"/>
+      <c r="AK15" s="333"/>
+      <c r="AL15" s="333"/>
+      <c r="AM15" s="333"/>
+      <c r="AN15" s="329"/>
       <c r="AS15" s="82"/>
       <c r="AT15" s="82"/>
       <c r="AU15" s="85"/>
@@ -13993,70 +14031,70 @@
       <c r="A16" s="89">
         <v>9</v>
       </c>
-      <c r="B16" s="130" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
+      <c r="B16" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="188"/>
       <c r="G16" s="136" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H16" s="137"/>
       <c r="I16" s="137"/>
       <c r="J16" s="137"/>
       <c r="K16" s="138"/>
       <c r="L16" s="136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M16" s="137"/>
       <c r="N16" s="137"/>
       <c r="O16" s="137"/>
       <c r="P16" s="138"/>
       <c r="Q16" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="R16" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="S16" s="320"/>
-      <c r="T16" s="320"/>
-      <c r="U16" s="321"/>
-      <c r="V16" s="325">
+        <v>97</v>
+      </c>
+      <c r="R16" s="330" t="s">
+        <v>103</v>
+      </c>
+      <c r="S16" s="332"/>
+      <c r="T16" s="332"/>
+      <c r="U16" s="331"/>
+      <c r="V16" s="340">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="326"/>
-      <c r="X16" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y16" s="324"/>
-      <c r="Z16" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA16" s="321"/>
-      <c r="AB16" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC16" s="321"/>
-      <c r="AD16" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE16" s="324"/>
-      <c r="AF16" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG16" s="320"/>
-      <c r="AH16" s="321"/>
-      <c r="AI16" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ16" s="323"/>
-      <c r="AK16" s="323"/>
-      <c r="AL16" s="323"/>
-      <c r="AM16" s="323"/>
-      <c r="AN16" s="324"/>
+      <c r="W16" s="341"/>
+      <c r="X16" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y16" s="329"/>
+      <c r="Z16" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" s="331"/>
+      <c r="AB16" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16" s="331"/>
+      <c r="AD16" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" s="329"/>
+      <c r="AF16" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG16" s="332"/>
+      <c r="AH16" s="331"/>
+      <c r="AI16" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ16" s="333"/>
+      <c r="AK16" s="333"/>
+      <c r="AL16" s="333"/>
+      <c r="AM16" s="333"/>
+      <c r="AN16" s="329"/>
       <c r="AS16" s="82"/>
       <c r="AT16" s="82"/>
       <c r="AU16" s="85"/>
@@ -14097,70 +14135,70 @@
       <c r="A17" s="89">
         <v>10</v>
       </c>
-      <c r="B17" s="130" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
+      <c r="B17" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="188"/>
       <c r="G17" s="136" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H17" s="137"/>
       <c r="I17" s="137"/>
       <c r="J17" s="137"/>
       <c r="K17" s="138"/>
       <c r="L17" s="136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M17" s="137"/>
       <c r="N17" s="137"/>
       <c r="O17" s="137"/>
       <c r="P17" s="138"/>
       <c r="Q17" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="R17" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="S17" s="320"/>
-      <c r="T17" s="320"/>
-      <c r="U17" s="321"/>
-      <c r="V17" s="325">
+        <v>97</v>
+      </c>
+      <c r="R17" s="330" t="s">
+        <v>103</v>
+      </c>
+      <c r="S17" s="332"/>
+      <c r="T17" s="332"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="340">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="326"/>
-      <c r="X17" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y17" s="324"/>
-      <c r="Z17" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA17" s="321"/>
-      <c r="AB17" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC17" s="321"/>
-      <c r="AD17" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE17" s="324"/>
-      <c r="AF17" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG17" s="320"/>
-      <c r="AH17" s="321"/>
-      <c r="AI17" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ17" s="323"/>
-      <c r="AK17" s="323"/>
-      <c r="AL17" s="323"/>
-      <c r="AM17" s="323"/>
-      <c r="AN17" s="324"/>
+      <c r="W17" s="341"/>
+      <c r="X17" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="329"/>
+      <c r="Z17" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" s="331"/>
+      <c r="AB17" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC17" s="331"/>
+      <c r="AD17" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE17" s="329"/>
+      <c r="AF17" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG17" s="332"/>
+      <c r="AH17" s="331"/>
+      <c r="AI17" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ17" s="333"/>
+      <c r="AK17" s="333"/>
+      <c r="AL17" s="333"/>
+      <c r="AM17" s="333"/>
+      <c r="AN17" s="329"/>
       <c r="AS17" s="82"/>
       <c r="AT17" s="82"/>
       <c r="AU17" s="85"/>
@@ -14201,70 +14239,70 @@
       <c r="A18" s="89">
         <v>11</v>
       </c>
-      <c r="B18" s="130" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
+      <c r="B18" s="186" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="187"/>
+      <c r="D18" s="187"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="188"/>
       <c r="G18" s="136" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H18" s="137"/>
       <c r="I18" s="137"/>
       <c r="J18" s="137"/>
       <c r="K18" s="138"/>
       <c r="L18" s="136" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M18" s="137"/>
       <c r="N18" s="137"/>
       <c r="O18" s="137"/>
       <c r="P18" s="138"/>
       <c r="Q18" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="R18" s="319" t="s">
-        <v>105</v>
-      </c>
-      <c r="S18" s="320"/>
-      <c r="T18" s="320"/>
-      <c r="U18" s="321"/>
-      <c r="V18" s="325">
+        <v>153</v>
+      </c>
+      <c r="R18" s="330" t="s">
+        <v>103</v>
+      </c>
+      <c r="S18" s="332"/>
+      <c r="T18" s="332"/>
+      <c r="U18" s="331"/>
+      <c r="V18" s="340">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="326"/>
-      <c r="X18" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y18" s="324"/>
-      <c r="Z18" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA18" s="321"/>
-      <c r="AB18" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC18" s="321"/>
-      <c r="AD18" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE18" s="324"/>
-      <c r="AF18" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG18" s="320"/>
-      <c r="AH18" s="321"/>
-      <c r="AI18" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ18" s="323"/>
-      <c r="AK18" s="323"/>
-      <c r="AL18" s="323"/>
-      <c r="AM18" s="323"/>
-      <c r="AN18" s="324"/>
+      <c r="W18" s="341"/>
+      <c r="X18" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y18" s="329"/>
+      <c r="Z18" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA18" s="331"/>
+      <c r="AB18" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC18" s="331"/>
+      <c r="AD18" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" s="329"/>
+      <c r="AF18" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG18" s="332"/>
+      <c r="AH18" s="331"/>
+      <c r="AI18" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ18" s="333"/>
+      <c r="AK18" s="333"/>
+      <c r="AL18" s="333"/>
+      <c r="AM18" s="333"/>
+      <c r="AN18" s="329"/>
       <c r="AS18" s="82"/>
       <c r="AT18" s="82"/>
       <c r="AU18" s="85"/>
@@ -14305,69 +14343,69 @@
       <c r="A19" s="89">
         <v>12</v>
       </c>
-      <c r="B19" s="322" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="319" t="s">
-        <v>129</v>
+      <c r="B19" s="328" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="187"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="330" t="s">
+        <v>127</v>
       </c>
       <c r="H19" s="137"/>
       <c r="I19" s="137"/>
       <c r="J19" s="137"/>
       <c r="K19" s="138"/>
-      <c r="L19" s="319" t="s">
-        <v>130</v>
+      <c r="L19" s="330" t="s">
+        <v>155</v>
       </c>
       <c r="M19" s="137"/>
       <c r="N19" s="137"/>
       <c r="O19" s="137"/>
       <c r="P19" s="138"/>
       <c r="Q19" s="110" t="s">
-        <v>156</v>
-      </c>
-      <c r="R19" s="319" t="s">
-        <v>100</v>
-      </c>
-      <c r="S19" s="320"/>
-      <c r="T19" s="320"/>
-      <c r="U19" s="321"/>
-      <c r="V19" s="325">
+        <v>153</v>
+      </c>
+      <c r="R19" s="330" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="332"/>
+      <c r="T19" s="332"/>
+      <c r="U19" s="331"/>
+      <c r="V19" s="340">
         <v>9</v>
       </c>
-      <c r="W19" s="326"/>
-      <c r="X19" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y19" s="324"/>
-      <c r="Z19" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA19" s="321"/>
-      <c r="AB19" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC19" s="321"/>
-      <c r="AD19" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE19" s="324"/>
-      <c r="AF19" s="319" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG19" s="320"/>
-      <c r="AH19" s="321"/>
-      <c r="AI19" s="322" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ19" s="323"/>
-      <c r="AK19" s="323"/>
-      <c r="AL19" s="323"/>
-      <c r="AM19" s="323"/>
-      <c r="AN19" s="324"/>
+      <c r="W19" s="341"/>
+      <c r="X19" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y19" s="329"/>
+      <c r="Z19" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" s="331"/>
+      <c r="AB19" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC19" s="331"/>
+      <c r="AD19" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE19" s="329"/>
+      <c r="AF19" s="330" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG19" s="332"/>
+      <c r="AH19" s="331"/>
+      <c r="AI19" s="328" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ19" s="333"/>
+      <c r="AK19" s="333"/>
+      <c r="AL19" s="333"/>
+      <c r="AM19" s="333"/>
+      <c r="AN19" s="329"/>
       <c r="AS19" s="82"/>
       <c r="AT19" s="82"/>
       <c r="AU19" s="85"/>
@@ -14406,12 +14444,12 @@
     </row>
     <row r="20" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="89"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="319"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="330"/>
       <c r="H20" s="137"/>
       <c r="I20" s="137"/>
       <c r="J20" s="137"/>
@@ -14422,29 +14460,29 @@
       <c r="O20" s="137"/>
       <c r="P20" s="138"/>
       <c r="Q20" s="110"/>
-      <c r="R20" s="319"/>
-      <c r="S20" s="320"/>
-      <c r="T20" s="320"/>
-      <c r="U20" s="321"/>
-      <c r="V20" s="325"/>
-      <c r="W20" s="326"/>
-      <c r="X20" s="322"/>
-      <c r="Y20" s="324"/>
-      <c r="Z20" s="319"/>
-      <c r="AA20" s="321"/>
-      <c r="AB20" s="319"/>
-      <c r="AC20" s="321"/>
-      <c r="AD20" s="322"/>
-      <c r="AE20" s="324"/>
-      <c r="AF20" s="319"/>
-      <c r="AG20" s="320"/>
-      <c r="AH20" s="321"/>
-      <c r="AI20" s="322"/>
-      <c r="AJ20" s="323"/>
-      <c r="AK20" s="323"/>
-      <c r="AL20" s="323"/>
-      <c r="AM20" s="323"/>
-      <c r="AN20" s="324"/>
+      <c r="R20" s="330"/>
+      <c r="S20" s="332"/>
+      <c r="T20" s="332"/>
+      <c r="U20" s="331"/>
+      <c r="V20" s="340"/>
+      <c r="W20" s="341"/>
+      <c r="X20" s="328"/>
+      <c r="Y20" s="329"/>
+      <c r="Z20" s="330"/>
+      <c r="AA20" s="331"/>
+      <c r="AB20" s="330"/>
+      <c r="AC20" s="331"/>
+      <c r="AD20" s="328"/>
+      <c r="AE20" s="329"/>
+      <c r="AF20" s="330"/>
+      <c r="AG20" s="332"/>
+      <c r="AH20" s="331"/>
+      <c r="AI20" s="328"/>
+      <c r="AJ20" s="333"/>
+      <c r="AK20" s="333"/>
+      <c r="AL20" s="333"/>
+      <c r="AM20" s="333"/>
+      <c r="AN20" s="329"/>
       <c r="AS20" s="82"/>
       <c r="AT20" s="82"/>
       <c r="AU20" s="85"/>
@@ -14483,45 +14521,45 @@
     </row>
     <row r="21" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="109"/>
-      <c r="B21" s="322"/>
-      <c r="C21" s="323"/>
-      <c r="D21" s="323"/>
-      <c r="E21" s="323"/>
-      <c r="F21" s="324"/>
-      <c r="G21" s="327"/>
-      <c r="H21" s="328"/>
-      <c r="I21" s="328"/>
-      <c r="J21" s="328"/>
-      <c r="K21" s="329"/>
-      <c r="L21" s="322"/>
-      <c r="M21" s="323"/>
-      <c r="N21" s="323"/>
-      <c r="O21" s="323"/>
-      <c r="P21" s="324"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="333"/>
+      <c r="D21" s="333"/>
+      <c r="E21" s="333"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="337"/>
+      <c r="H21" s="338"/>
+      <c r="I21" s="338"/>
+      <c r="J21" s="338"/>
+      <c r="K21" s="339"/>
+      <c r="L21" s="328"/>
+      <c r="M21" s="333"/>
+      <c r="N21" s="333"/>
+      <c r="O21" s="333"/>
+      <c r="P21" s="329"/>
       <c r="Q21" s="110"/>
-      <c r="R21" s="319"/>
-      <c r="S21" s="320"/>
-      <c r="T21" s="320"/>
-      <c r="U21" s="321"/>
-      <c r="V21" s="325"/>
-      <c r="W21" s="326"/>
-      <c r="X21" s="322"/>
-      <c r="Y21" s="324"/>
-      <c r="Z21" s="319"/>
-      <c r="AA21" s="321"/>
-      <c r="AB21" s="319"/>
-      <c r="AC21" s="321"/>
-      <c r="AD21" s="322"/>
-      <c r="AE21" s="324"/>
-      <c r="AF21" s="319"/>
-      <c r="AG21" s="320"/>
-      <c r="AH21" s="321"/>
-      <c r="AI21" s="322"/>
-      <c r="AJ21" s="323"/>
-      <c r="AK21" s="323"/>
-      <c r="AL21" s="323"/>
-      <c r="AM21" s="323"/>
-      <c r="AN21" s="324"/>
+      <c r="R21" s="330"/>
+      <c r="S21" s="332"/>
+      <c r="T21" s="332"/>
+      <c r="U21" s="331"/>
+      <c r="V21" s="340"/>
+      <c r="W21" s="341"/>
+      <c r="X21" s="328"/>
+      <c r="Y21" s="329"/>
+      <c r="Z21" s="330"/>
+      <c r="AA21" s="331"/>
+      <c r="AB21" s="330"/>
+      <c r="AC21" s="331"/>
+      <c r="AD21" s="328"/>
+      <c r="AE21" s="329"/>
+      <c r="AF21" s="330"/>
+      <c r="AG21" s="332"/>
+      <c r="AH21" s="331"/>
+      <c r="AI21" s="328"/>
+      <c r="AJ21" s="333"/>
+      <c r="AK21" s="333"/>
+      <c r="AL21" s="333"/>
+      <c r="AM21" s="333"/>
+      <c r="AN21" s="329"/>
       <c r="AS21" s="82"/>
       <c r="AT21" s="82"/>
       <c r="AU21" s="85"/>
@@ -14560,45 +14598,45 @@
     </row>
     <row r="22" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="109"/>
-      <c r="B22" s="322"/>
-      <c r="C22" s="323"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="323"/>
-      <c r="F22" s="324"/>
-      <c r="G22" s="327"/>
-      <c r="H22" s="328"/>
-      <c r="I22" s="328"/>
-      <c r="J22" s="328"/>
-      <c r="K22" s="329"/>
-      <c r="L22" s="322"/>
-      <c r="M22" s="323"/>
-      <c r="N22" s="323"/>
-      <c r="O22" s="323"/>
-      <c r="P22" s="324"/>
+      <c r="B22" s="328"/>
+      <c r="C22" s="333"/>
+      <c r="D22" s="333"/>
+      <c r="E22" s="333"/>
+      <c r="F22" s="329"/>
+      <c r="G22" s="337"/>
+      <c r="H22" s="338"/>
+      <c r="I22" s="338"/>
+      <c r="J22" s="338"/>
+      <c r="K22" s="339"/>
+      <c r="L22" s="328"/>
+      <c r="M22" s="333"/>
+      <c r="N22" s="333"/>
+      <c r="O22" s="333"/>
+      <c r="P22" s="329"/>
       <c r="Q22" s="110"/>
-      <c r="R22" s="319"/>
-      <c r="S22" s="320"/>
-      <c r="T22" s="320"/>
-      <c r="U22" s="321"/>
-      <c r="V22" s="325"/>
-      <c r="W22" s="326"/>
-      <c r="X22" s="322"/>
-      <c r="Y22" s="324"/>
-      <c r="Z22" s="319"/>
-      <c r="AA22" s="321"/>
-      <c r="AB22" s="319"/>
-      <c r="AC22" s="321"/>
-      <c r="AD22" s="322"/>
-      <c r="AE22" s="324"/>
-      <c r="AF22" s="319"/>
-      <c r="AG22" s="320"/>
-      <c r="AH22" s="321"/>
-      <c r="AI22" s="322"/>
-      <c r="AJ22" s="323"/>
-      <c r="AK22" s="323"/>
-      <c r="AL22" s="323"/>
-      <c r="AM22" s="323"/>
-      <c r="AN22" s="324"/>
+      <c r="R22" s="330"/>
+      <c r="S22" s="332"/>
+      <c r="T22" s="332"/>
+      <c r="U22" s="331"/>
+      <c r="V22" s="340"/>
+      <c r="W22" s="341"/>
+      <c r="X22" s="328"/>
+      <c r="Y22" s="329"/>
+      <c r="Z22" s="330"/>
+      <c r="AA22" s="331"/>
+      <c r="AB22" s="330"/>
+      <c r="AC22" s="331"/>
+      <c r="AD22" s="328"/>
+      <c r="AE22" s="329"/>
+      <c r="AF22" s="330"/>
+      <c r="AG22" s="332"/>
+      <c r="AH22" s="331"/>
+      <c r="AI22" s="328"/>
+      <c r="AJ22" s="333"/>
+      <c r="AK22" s="333"/>
+      <c r="AL22" s="333"/>
+      <c r="AM22" s="333"/>
+      <c r="AN22" s="329"/>
       <c r="AS22" s="82"/>
       <c r="AT22" s="82"/>
       <c r="AU22" s="85"/>
@@ -14637,45 +14675,45 @@
     </row>
     <row r="23" spans="1:110" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="109"/>
-      <c r="B23" s="322"/>
-      <c r="C23" s="323"/>
-      <c r="D23" s="323"/>
-      <c r="E23" s="323"/>
-      <c r="F23" s="324"/>
-      <c r="G23" s="322"/>
-      <c r="H23" s="323"/>
-      <c r="I23" s="323"/>
-      <c r="J23" s="323"/>
-      <c r="K23" s="324"/>
-      <c r="L23" s="322"/>
-      <c r="M23" s="323"/>
-      <c r="N23" s="323"/>
-      <c r="O23" s="323"/>
-      <c r="P23" s="324"/>
+      <c r="B23" s="328"/>
+      <c r="C23" s="333"/>
+      <c r="D23" s="333"/>
+      <c r="E23" s="333"/>
+      <c r="F23" s="329"/>
+      <c r="G23" s="328"/>
+      <c r="H23" s="333"/>
+      <c r="I23" s="333"/>
+      <c r="J23" s="333"/>
+      <c r="K23" s="329"/>
+      <c r="L23" s="328"/>
+      <c r="M23" s="333"/>
+      <c r="N23" s="333"/>
+      <c r="O23" s="333"/>
+      <c r="P23" s="329"/>
       <c r="Q23" s="110"/>
-      <c r="R23" s="319"/>
-      <c r="S23" s="320"/>
-      <c r="T23" s="320"/>
-      <c r="U23" s="321"/>
-      <c r="V23" s="334"/>
-      <c r="W23" s="335"/>
-      <c r="X23" s="334"/>
-      <c r="Y23" s="335"/>
-      <c r="Z23" s="322"/>
-      <c r="AA23" s="324"/>
-      <c r="AB23" s="319"/>
-      <c r="AC23" s="321"/>
-      <c r="AD23" s="322"/>
-      <c r="AE23" s="324"/>
-      <c r="AF23" s="319"/>
-      <c r="AG23" s="320"/>
-      <c r="AH23" s="321"/>
-      <c r="AI23" s="322"/>
-      <c r="AJ23" s="323"/>
-      <c r="AK23" s="323"/>
-      <c r="AL23" s="323"/>
-      <c r="AM23" s="323"/>
-      <c r="AN23" s="324"/>
+      <c r="R23" s="330"/>
+      <c r="S23" s="332"/>
+      <c r="T23" s="332"/>
+      <c r="U23" s="331"/>
+      <c r="V23" s="335"/>
+      <c r="W23" s="336"/>
+      <c r="X23" s="335"/>
+      <c r="Y23" s="336"/>
+      <c r="Z23" s="328"/>
+      <c r="AA23" s="329"/>
+      <c r="AB23" s="330"/>
+      <c r="AC23" s="331"/>
+      <c r="AD23" s="328"/>
+      <c r="AE23" s="329"/>
+      <c r="AF23" s="330"/>
+      <c r="AG23" s="332"/>
+      <c r="AH23" s="331"/>
+      <c r="AI23" s="328"/>
+      <c r="AJ23" s="333"/>
+      <c r="AK23" s="333"/>
+      <c r="AL23" s="333"/>
+      <c r="AM23" s="333"/>
+      <c r="AN23" s="329"/>
       <c r="AS23" s="82"/>
       <c r="AT23" s="82"/>
       <c r="AU23" s="85"/>
@@ -14714,27 +14752,165 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
@@ -14759,165 +14935,27 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
@@ -14953,113 +14991,113 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="49" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="52" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
